--- a/data/Round2ProjectRobotData.xlsx
+++ b/data/Round2ProjectRobotData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Documents\R\Apps\Round_2_App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E8DDBA-75A5-4CA9-80EE-C61DCC743FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC5980-CA3B-4E97-82F5-DEFAEFE2267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3254,13 +3254,13 @@
     <t>Non-Hospital Care</t>
   </si>
   <si>
-    <t>Public Safety, Public Works, Non-Clinical Public Health</t>
-  </si>
-  <si>
-    <t>Laboratory and Supply Chain Automation</t>
-  </si>
-  <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>Clinical Health</t>
+  </si>
+  <si>
+    <t>Lab and Supply Chain Automation</t>
   </si>
 </sst>
 </file>
@@ -3938,8 +3938,8 @@
   </sheetPr>
   <dimension ref="A1:Z1077"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3967,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>4</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>7</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>7</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>7</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>7</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>7</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B7" s="51" t="s">
         <v>7</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B8" s="51" t="s">
         <v>7</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B9" s="51" t="s">
         <v>7</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B10" s="51" t="s">
         <v>7</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B11" s="51" t="s">
         <v>7</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B12" s="51" t="s">
         <v>7</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>7</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>7</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>7</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B16" s="51" t="s">
         <v>7</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B17" s="51" t="s">
         <v>7</v>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>7</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>7</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B20" s="51" t="s">
         <v>7</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B21" s="51" t="s">
         <v>7</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B22" s="51" t="s">
         <v>7</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B23" s="51" t="s">
         <v>7</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>7</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B25" s="51" t="s">
         <v>7</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>7</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B27" s="51" t="s">
         <v>7</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B28" s="51" t="s">
         <v>7</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B29" s="51" t="s">
         <v>7</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>7</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B31" s="51" t="s">
         <v>7</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B32" s="51" t="s">
         <v>7</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B33" s="51" t="s">
         <v>7</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>7</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B35" s="51" t="s">
         <v>7</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A36" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B36" s="51" t="s">
         <v>7</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A37" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B37" s="51" t="s">
         <v>7</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A38" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B38" s="51" t="s">
         <v>7</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B39" s="51" t="s">
         <v>7</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B40" s="51" t="s">
         <v>7</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B41" s="51" t="s">
         <v>7</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B42" s="51" t="s">
         <v>7</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B43" s="51" t="s">
         <v>7</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B44" s="51" t="s">
         <v>7</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B45" s="51" t="s">
         <v>7</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B46" s="51" t="s">
         <v>7</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B47" s="51" t="s">
         <v>168</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B48" s="51" t="s">
         <v>168</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A49" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B49" s="51" t="s">
         <v>168</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A50" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B50" s="51" t="s">
         <v>168</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A51" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B51" s="51" t="s">
         <v>168</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B52" s="51" t="s">
         <v>168</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A53" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B53" s="51" t="s">
         <v>168</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A54" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B54" s="51" t="s">
         <v>168</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A55" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B55" s="51" t="s">
         <v>168</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A56" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B56" s="51" t="s">
         <v>168</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A57" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B57" s="51" t="s">
         <v>168</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A58" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B58" s="51" t="s">
         <v>168</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B59" s="51" t="s">
         <v>168</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A60" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B60" s="51" t="s">
         <v>168</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A61" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B61" s="51" t="s">
         <v>168</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A62" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B62" s="51" t="s">
         <v>168</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A63" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B63" s="51" t="s">
         <v>168</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A64" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B64" s="51" t="s">
         <v>168</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A65" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B65" s="51" t="s">
         <v>168</v>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A66" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B66" s="51" t="s">
         <v>168</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A67" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B67" s="51" t="s">
         <v>168</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A68" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B68" s="51" t="s">
         <v>168</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A69" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B69" s="51" t="s">
         <v>168</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A70" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B70" s="51" t="s">
         <v>168</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B71" s="51" t="s">
         <v>168</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A72" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B72" s="51" t="s">
         <v>168</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A73" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B73" s="51" t="s">
         <v>168</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B74" s="51" t="s">
         <v>168</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A75" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B75" s="51" t="s">
         <v>168</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A76" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B76" s="51" t="s">
         <v>168</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B77" s="51" t="s">
         <v>168</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B78" s="51" t="s">
         <v>168</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A79" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B79" s="51" t="s">
         <v>168</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A80" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B80" s="51" t="s">
         <v>168</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A81" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B81" s="51" t="s">
         <v>267</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A82" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B82" s="51" t="s">
         <v>267</v>
@@ -7675,7 +7675,7 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A83" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B83" s="51" t="s">
         <v>267</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A84" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B84" s="51" t="s">
         <v>267</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A85" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B85" s="51" t="s">
         <v>267</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A86" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B86" s="51" t="s">
         <v>267</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A87" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B87" s="51" t="s">
         <v>267</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A88" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B88" s="51" t="s">
         <v>267</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A89" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B89" s="51" t="s">
         <v>267</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A90" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B90" s="51" t="s">
         <v>287</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A91" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B91" s="51" t="s">
         <v>287</v>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A92" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B92" s="51" t="s">
         <v>287</v>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A93" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B93" s="51" t="s">
         <v>287</v>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A94" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B94" s="51" t="s">
         <v>287</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A95" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B95" s="51" t="s">
         <v>287</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B96" s="51" t="s">
         <v>287</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A97" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B97" s="51" t="s">
         <v>287</v>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A98" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B98" s="51" t="s">
         <v>287</v>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A99" s="50" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B99" s="68" t="s">
         <v>319</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A100" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B100" s="70" t="s">
         <v>321</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A101" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B101" s="70" t="s">
         <v>321</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B102" s="70" t="s">
         <v>321</v>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B103" s="70" t="s">
         <v>321</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B104" s="70" t="s">
         <v>321</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B105" s="70" t="s">
         <v>321</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A106" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B106" s="70" t="s">
         <v>321</v>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B107" s="70" t="s">
         <v>321</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B108" s="70" t="s">
         <v>321</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B109" s="70" t="s">
         <v>321</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A110" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B110" s="70" t="s">
         <v>321</v>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A111" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B111" s="70" t="s">
         <v>321</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B112" s="70" t="s">
         <v>321</v>
@@ -9025,7 +9025,7 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B113" s="70" t="s">
         <v>321</v>
@@ -9069,7 +9069,7 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B114" s="70" t="s">
         <v>321</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A115" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B115" s="70" t="s">
         <v>321</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A116" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B116" s="70" t="s">
         <v>321</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A117" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B117" s="70" t="s">
         <v>321</v>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A118" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B118" s="70" t="s">
         <v>321</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A119" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B119" s="70" t="s">
         <v>321</v>
@@ -9333,7 +9333,7 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A120" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B120" s="70" t="s">
         <v>321</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A121" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B121" s="70" t="s">
         <v>321</v>
@@ -9421,7 +9421,7 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A122" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B122" s="70" t="s">
         <v>321</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A123" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B123" s="70" t="s">
         <v>321</v>
@@ -9509,7 +9509,7 @@
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A124" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B124" s="70" t="s">
         <v>321</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A125" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B125" s="70" t="s">
         <v>321</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A126" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B126" s="70" t="s">
         <v>399</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A127" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B127" s="70" t="s">
         <v>399</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B128" s="70" t="s">
         <v>399</v>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B129" s="70" t="s">
         <v>399</v>
@@ -9783,7 +9783,7 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B130" s="70" t="s">
         <v>399</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B131" s="70" t="s">
         <v>399</v>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B132" s="70" t="s">
         <v>399</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B133" s="70" t="s">
         <v>399</v>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A134" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B134" s="70" t="s">
         <v>399</v>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B135" s="70" t="s">
         <v>399</v>
@@ -10063,7 +10063,7 @@
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A136" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B136" s="70" t="s">
         <v>399</v>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A137" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B137" s="70" t="s">
         <v>399</v>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B138" s="70" t="s">
         <v>399</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A139" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B139" s="70" t="s">
         <v>399</v>
@@ -10243,7 +10243,7 @@
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A140" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B140" s="70" t="s">
         <v>399</v>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A141" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B141" s="70" t="s">
         <v>399</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A142" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B142" s="70" t="s">
         <v>399</v>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A143" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B143" s="70" t="s">
         <v>399</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A144" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B144" s="70" t="s">
         <v>399</v>
@@ -10467,7 +10467,7 @@
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A145" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B145" s="70" t="s">
         <v>399</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A146" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B146" s="70" t="s">
         <v>464</v>
@@ -10561,7 +10561,7 @@
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A147" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B147" s="70" t="s">
         <v>464</v>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A148" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B148" s="70" t="s">
         <v>464</v>
@@ -10651,7 +10651,7 @@
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A149" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B149" s="70" t="s">
         <v>464</v>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A150" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B150" s="70" t="s">
         <v>464</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A151" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B151" s="70" t="s">
         <v>464</v>
@@ -10783,7 +10783,7 @@
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A152" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B152" s="70" t="s">
         <v>464</v>
@@ -10827,7 +10827,7 @@
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A153" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B153" s="70" t="s">
         <v>464</v>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A154" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B154" s="70" t="s">
         <v>464</v>
@@ -10917,7 +10917,7 @@
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A155" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B155" s="70" t="s">
         <v>464</v>
@@ -10965,7 +10965,7 @@
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A156" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B156" s="70" t="s">
         <v>464</v>
@@ -11011,7 +11011,7 @@
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A157" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B157" s="70" t="s">
         <v>464</v>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A158" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B158" s="70" t="s">
         <v>464</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A159" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B159" s="70" t="s">
         <v>464</v>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A160" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B160" s="70" t="s">
         <v>464</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A161" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B161" s="70" t="s">
         <v>464</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A162" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B162" s="70" t="s">
         <v>464</v>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A163" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B163" s="70" t="s">
         <v>464</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A164" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B164" s="70" t="s">
         <v>464</v>
@@ -11373,7 +11373,7 @@
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A165" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B165" s="70" t="s">
         <v>464</v>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A166" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B166" s="70" t="s">
         <v>513</v>
@@ -11461,7 +11461,7 @@
     </row>
     <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A167" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B167" s="70" t="s">
         <v>513</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A168" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B168" s="70" t="s">
         <v>513</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A169" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B169" s="70" t="s">
         <v>513</v>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A170" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B170" s="70" t="s">
         <v>513</v>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A171" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B171" s="70" t="s">
         <v>513</v>
@@ -11701,7 +11701,7 @@
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A172" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B172" s="70" t="s">
         <v>513</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A173" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B173" s="70" t="s">
         <v>513</v>
@@ -11793,7 +11793,7 @@
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A174" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B174" s="70" t="s">
         <v>513</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A175" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B175" s="73" t="s">
         <v>554</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A176" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B176" s="73" t="s">
         <v>554</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A177" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B177" s="73" t="s">
         <v>554</v>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A178" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B178" s="73" t="s">
         <v>554</v>
@@ -12017,7 +12017,7 @@
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A179" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B179" s="73" t="s">
         <v>554</v>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A180" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B180" s="73" t="s">
         <v>562</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A181" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B181" s="73" t="s">
         <v>562</v>
@@ -12149,7 +12149,7 @@
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A182" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B182" s="73" t="s">
         <v>562</v>
@@ -12193,7 +12193,7 @@
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A183" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B183" s="73" t="s">
         <v>562</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A184" s="69" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B184" s="73" t="s">
         <v>562</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A289" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B289" s="51" t="s">
         <v>867</v>
@@ -16881,7 +16881,7 @@
     </row>
     <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A290" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B290" s="51" t="s">
         <v>867</v>
@@ -16925,7 +16925,7 @@
     </row>
     <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A291" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B291" s="51" t="s">
         <v>867</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A292" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B292" s="51" t="s">
         <v>867</v>
@@ -17015,7 +17015,7 @@
     </row>
     <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A293" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B293" s="51" t="s">
         <v>867</v>
@@ -17059,7 +17059,7 @@
     </row>
     <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A294" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B294" s="51" t="s">
         <v>867</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A295" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B295" s="51" t="s">
         <v>867</v>
@@ -17149,7 +17149,7 @@
     </row>
     <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A296" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B296" s="51" t="s">
         <v>867</v>
@@ -17197,7 +17197,7 @@
     </row>
     <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A297" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B297" s="51" t="s">
         <v>867</v>
@@ -17241,7 +17241,7 @@
     </row>
     <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A298" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B298" s="51" t="s">
         <v>867</v>
@@ -17285,7 +17285,7 @@
     </row>
     <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A299" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B299" s="51" t="s">
         <v>867</v>
@@ -17329,7 +17329,7 @@
     </row>
     <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A300" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B300" s="51" t="s">
         <v>867</v>
@@ -17373,7 +17373,7 @@
     </row>
     <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A301" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B301" s="51" t="s">
         <v>867</v>
@@ -17419,7 +17419,7 @@
     </row>
     <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A302" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B302" s="51" t="s">
         <v>867</v>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A303" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B303" s="51" t="s">
         <v>867</v>
@@ -17507,7 +17507,7 @@
     </row>
     <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A304" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B304" s="51" t="s">
         <v>867</v>
@@ -17555,7 +17555,7 @@
     </row>
     <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A305" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B305" s="51" t="s">
         <v>867</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A306" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B306" s="51" t="s">
         <v>867</v>
@@ -17643,7 +17643,7 @@
     </row>
     <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A307" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B307" s="51" t="s">
         <v>867</v>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A308" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B308" s="51" t="s">
         <v>867</v>
@@ -17731,7 +17731,7 @@
     </row>
     <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A309" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B309" s="51" t="s">
         <v>867</v>
@@ -17775,7 +17775,7 @@
     </row>
     <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A310" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B310" s="51" t="s">
         <v>867</v>
@@ -17819,7 +17819,7 @@
     </row>
     <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A311" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B311" s="51" t="s">
         <v>867</v>
@@ -17865,7 +17865,7 @@
     </row>
     <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A312" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B312" s="51" t="s">
         <v>867</v>
@@ -17909,7 +17909,7 @@
     </row>
     <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A313" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B313" s="51" t="s">
         <v>867</v>
@@ -17953,7 +17953,7 @@
     </row>
     <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A314" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B314" s="51" t="s">
         <v>867</v>
@@ -17997,7 +17997,7 @@
     </row>
     <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A315" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B315" s="51" t="s">
         <v>867</v>
@@ -18041,7 +18041,7 @@
     </row>
     <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A316" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B316" s="51" t="s">
         <v>867</v>
@@ -18085,7 +18085,7 @@
     </row>
     <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A317" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B317" s="51" t="s">
         <v>951</v>
@@ -18129,7 +18129,7 @@
     </row>
     <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A318" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B318" s="51" t="s">
         <v>951</v>
@@ -18173,7 +18173,7 @@
     </row>
     <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A319" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B319" s="51" t="s">
         <v>951</v>
@@ -18219,7 +18219,7 @@
     </row>
     <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A320" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B320" s="51" t="s">
         <v>951</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A321" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B321" s="51" t="s">
         <v>965</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A322" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B322" s="51" t="s">
         <v>965</v>
@@ -18355,7 +18355,7 @@
     </row>
     <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A323" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B323" s="51" t="s">
         <v>969</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A324" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B324" s="51" t="s">
         <v>969</v>
@@ -18449,7 +18449,7 @@
     </row>
     <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A325" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B325" s="51" t="s">
         <v>969</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A326" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B326" s="51" t="s">
         <v>969</v>
@@ -18539,7 +18539,7 @@
     </row>
     <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A327" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B327" s="51" t="s">
         <v>969</v>
@@ -18585,7 +18585,7 @@
     </row>
     <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A328" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B328" s="51" t="s">
         <v>969</v>
@@ -18629,7 +18629,7 @@
     </row>
     <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A329" s="78" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B329" s="51" t="s">
         <v>969</v>
@@ -20447,7 +20447,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -20614,7 +20614,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -20649,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">

--- a/data/Round2ProjectRobotData.xlsx
+++ b/data/Round2ProjectRobotData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Documents\R\Apps\Round_2_App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haochiaoyiu/Desktop/Round_2_App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5329E8-604D-4A80-9607-7A2A240A1558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA9C68-CCFD-D946-A9FD-AE8D13920304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="21600" windowHeight="16200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Pictures" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5517" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5577" uniqueCount="1072">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -3287,12 +3288,117 @@
   <si>
     <t>Africa</t>
   </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PublicSafety-QuarantineEnforcement.jpg</t>
+  </si>
+  <si>
+    <t>PublicSafety-IdentificationofInfected.jpeg</t>
+  </si>
+  <si>
+    <t>PublicSafety-MonitoringTrafficFlow.jpeg</t>
+  </si>
+  <si>
+    <t>PublicSafety-PublicServiceAnnouncements.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.gainesville.com/story/news/coronavirus/2020/04/08/coronavirus-drone-display-daytona-police-show-off-aircraft-with-loudspeaker-heat-detector-video/1388731007/</t>
+  </si>
+  <si>
+    <t>PublicSafety-DisinfectingPublicSpaces.jpeg</t>
+  </si>
+  <si>
+    <t>ClinicalHealth-DisinfectingPointofCare.jpeg</t>
+  </si>
+  <si>
+    <t>ClinicalHealth-ObservationalTelepresence.jpeg</t>
+  </si>
+  <si>
+    <t>ClinicalHealth-DeliveryandInventory.jpeg</t>
+  </si>
+  <si>
+    <t>ClinicalHealth-InterventionalTelepresence.jpeg</t>
+  </si>
+  <si>
+    <t>ClinicalHealth-PatientandFamiySocialising.jpeg</t>
+  </si>
+  <si>
+    <t>ClinicalHealth-PatientIntakeandVisitors.jpeg</t>
+  </si>
+  <si>
+    <t>ContinuityofWorkandEducation-SanitationatWork//School.jpeg</t>
+  </si>
+  <si>
+    <t>ContinuityofWorkandEducation-Telepresence.jpeg</t>
+  </si>
+  <si>
+    <t>ContinuityofWorkandEducation-Warehouse&amp;ProcessAutomation.jpeg</t>
+  </si>
+  <si>
+    <t>ContinuityofWorkandEducation-PrivateHealthSurveillance.jpeg</t>
+  </si>
+  <si>
+    <t>ContinuityofWorkandEducation-ConstructionandAgriculture.jpeg</t>
+  </si>
+  <si>
+    <t>ContinuityofWorkandEducation-PrivateSecurity.jpeg</t>
+  </si>
+  <si>
+    <t>QualityofLife-DeliveryFood.jepg</t>
+  </si>
+  <si>
+    <t>QualityofLife-DeliveryNon-Food.jepg</t>
+  </si>
+  <si>
+    <t>QualityofLife-AttendPublicSocialEvents.jepg</t>
+  </si>
+  <si>
+    <t>QualityofLife-InterpersonalSocializing.jepg</t>
+  </si>
+  <si>
+    <t>QualityofLife-OtherPersonalActivities.jepg</t>
+  </si>
+  <si>
+    <t>https://weartv.com/news/coronavirus/gallery/drone-light-show-salutes-frontline-workers-of-the-covid-19-pandemic-in-nashville?photo=1</t>
+  </si>
+  <si>
+    <t>LabandSupplyChainAutomation-Delivery.jpeg</t>
+  </si>
+  <si>
+    <t>LabandSupplyChainAutomation-ManufactureorDeconPPE.jpeg</t>
+  </si>
+  <si>
+    <t>LabandSupplyChainAutomation-LaboratoryAutomation.jpeg</t>
+  </si>
+  <si>
+    <t>https://ruralradio.com/krvn/news/york-general-to-use-ultraviolet-light-robot-to-sanitize-n95-masks-during-covid-19-pandemic/</t>
+  </si>
+  <si>
+    <t>LabandSupplyChainAutomation-InfectiousMat.Handling.jpeg</t>
+  </si>
+  <si>
+    <t>Non-HospitalCare-DeliveryToQuarantined.jpeg</t>
+  </si>
+  <si>
+    <t>Non-HospitalCare-QuarantineSocializing.jpeg</t>
+  </si>
+  <si>
+    <t>Non-HospitalCare-PublicHealthSurveillance.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ULA6pssZPls&amp;ab_channel=TemiRobot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3479,6 +3585,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -3590,10 +3708,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3796,8 +3915,24 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4016,11 +4151,11 @@
   </sheetPr>
   <dimension ref="A1:Z1077"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A315" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
@@ -4031,7 +4166,7 @@
     <col min="11" max="11" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4075,7 +4210,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4121,7 +4256,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4169,7 +4304,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4217,7 +4352,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4261,7 +4396,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4309,7 +4444,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4357,7 +4492,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4405,7 +4540,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4457,7 +4592,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4503,7 +4638,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4550,7 +4685,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4594,7 +4729,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4638,7 +4773,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4682,7 +4817,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4728,7 +4863,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4772,7 +4907,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4816,7 +4951,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4860,7 +4995,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4906,7 +5041,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4950,7 +5085,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
         <v>1020</v>
       </c>
@@ -4994,7 +5129,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5042,7 +5177,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5086,7 +5221,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5134,7 +5269,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5182,7 +5317,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5226,7 +5361,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5270,7 +5405,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5314,7 +5449,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5358,7 +5493,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5402,7 +5537,7 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5446,7 +5581,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5490,7 +5625,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5538,7 +5673,7 @@
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5584,7 +5719,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5631,7 +5766,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5677,7 +5812,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5721,7 +5856,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5767,7 +5902,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5811,7 +5946,7 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5855,7 +5990,7 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5901,7 +6036,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5945,7 +6080,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="50" t="s">
         <v>1020</v>
       </c>
@@ -5989,7 +6124,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6033,7 +6168,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6077,7 +6212,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6123,7 +6258,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6167,7 +6302,7 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6213,7 +6348,7 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6257,7 +6392,7 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6301,7 +6436,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6345,7 +6480,7 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6391,7 +6526,7 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6435,7 +6570,7 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6481,7 +6616,7 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6527,7 +6662,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6571,7 +6706,7 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6615,7 +6750,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6663,7 +6798,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6709,7 +6844,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6755,7 +6890,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6799,7 +6934,7 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6843,7 +6978,7 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6887,7 +7022,7 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6931,7 +7066,7 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="50" t="s">
         <v>1020</v>
       </c>
@@ -6979,7 +7114,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7023,7 +7158,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7067,7 +7202,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7111,7 +7246,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7155,7 +7290,7 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7201,7 +7336,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7247,7 +7382,7 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7295,7 +7430,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7343,7 +7478,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7387,7 +7522,7 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7431,7 +7566,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7479,7 +7614,7 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7523,7 +7658,7 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7567,7 +7702,7 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7611,7 +7746,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7657,7 +7792,7 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7703,7 +7838,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7751,7 +7886,7 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7795,7 +7930,7 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7839,7 +7974,7 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7883,7 +8018,7 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7927,7 +8062,7 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="50" t="s">
         <v>1020</v>
       </c>
@@ -7971,7 +8106,7 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8015,7 +8150,7 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8061,7 +8196,7 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8107,7 +8242,7 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8151,7 +8286,7 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8197,7 +8332,7 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8241,7 +8376,7 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8285,7 +8420,7 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8331,7 +8466,7 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8379,7 +8514,7 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8423,7 +8558,7 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8467,7 +8602,7 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="50" t="s">
         <v>1020</v>
       </c>
@@ -8513,7 +8648,7 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="69" t="s">
         <v>1027</v>
       </c>
@@ -8557,11 +8692,11 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="69" t="s">
         <v>1027</v>
       </c>
-      <c r="B101" s="70" t="s">
+      <c r="B101" s="109" t="s">
         <v>321</v>
       </c>
       <c r="C101" s="52">
@@ -8601,7 +8736,7 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="69" t="s">
         <v>1027</v>
       </c>
@@ -8649,7 +8784,7 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="69" t="s">
         <v>1027</v>
       </c>
@@ -8693,7 +8828,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="69" t="s">
         <v>1027</v>
       </c>
@@ -8739,7 +8874,7 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="69" t="s">
         <v>1027</v>
       </c>
@@ -8783,7 +8918,7 @@
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="69" t="s">
         <v>1027</v>
       </c>
@@ -8827,7 +8962,7 @@
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="69" t="s">
         <v>1027</v>
       </c>
@@ -8871,7 +9006,7 @@
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="69" t="s">
         <v>1027</v>
       </c>
@@ -8915,7 +9050,7 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="69" t="s">
         <v>1027</v>
       </c>
@@ -8963,7 +9098,7 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9007,7 +9142,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9055,7 +9190,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9101,7 +9236,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9145,7 +9280,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9189,7 +9324,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9233,7 +9368,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9277,7 +9412,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9321,7 +9456,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9365,7 +9500,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9409,7 +9544,7 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9453,7 +9588,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9497,7 +9632,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9541,7 +9676,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9585,7 +9720,7 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9629,7 +9764,7 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9675,7 +9810,7 @@
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9723,11 +9858,11 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="69" t="s">
         <v>1027</v>
       </c>
-      <c r="B127" s="70" t="s">
+      <c r="B127" s="109" t="s">
         <v>399</v>
       </c>
       <c r="C127" s="52">
@@ -9769,7 +9904,7 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9815,7 +9950,7 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9859,7 +9994,7 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9903,7 +10038,7 @@
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9951,7 +10086,7 @@
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="69" t="s">
         <v>1027</v>
       </c>
@@ -9995,7 +10130,7 @@
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10043,7 +10178,7 @@
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10091,7 +10226,7 @@
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10139,7 +10274,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10187,7 +10322,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10231,7 +10366,7 @@
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10275,7 +10410,7 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10319,7 +10454,7 @@
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10365,7 +10500,7 @@
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10409,7 +10544,7 @@
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10455,7 +10590,7 @@
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10499,7 +10634,7 @@
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10543,7 +10678,7 @@
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10589,7 +10724,7 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10637,7 +10772,7 @@
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10683,7 +10818,7 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10727,7 +10862,7 @@
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10771,7 +10906,7 @@
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10815,7 +10950,7 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10859,11 +10994,11 @@
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="69" t="s">
         <v>1027</v>
       </c>
-      <c r="B152" s="70" t="s">
+      <c r="B152" s="109" t="s">
         <v>464</v>
       </c>
       <c r="C152" s="52">
@@ -10903,7 +11038,7 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10947,7 +11082,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="69" t="s">
         <v>1027</v>
       </c>
@@ -10993,7 +11128,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11041,7 +11176,7 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11087,7 +11222,7 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11133,7 +11268,7 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11179,7 +11314,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11225,7 +11360,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11271,7 +11406,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11315,7 +11450,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11359,7 +11494,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11403,7 +11538,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11449,7 +11584,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11493,11 +11628,11 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="69" t="s">
         <v>1027</v>
       </c>
-      <c r="B166" s="70" t="s">
+      <c r="B166" s="109" t="s">
         <v>513</v>
       </c>
       <c r="C166" s="52">
@@ -11537,7 +11672,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11585,7 +11720,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11633,7 +11768,7 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11683,7 +11818,7 @@
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11729,7 +11864,7 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11777,7 +11912,7 @@
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11823,7 +11958,7 @@
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11869,7 +12004,7 @@
       <c r="Y173" s="4"/>
       <c r="Z173" s="4"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11913,7 +12048,7 @@
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="69" t="s">
         <v>1027</v>
       </c>
@@ -11957,11 +12092,11 @@
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="69" t="s">
         <v>1027</v>
       </c>
-      <c r="B176" s="73" t="s">
+      <c r="B176" s="110" t="s">
         <v>554</v>
       </c>
       <c r="C176" s="55">
@@ -12003,7 +12138,7 @@
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="69" t="s">
         <v>1027</v>
       </c>
@@ -12047,7 +12182,7 @@
       <c r="Y177" s="4"/>
       <c r="Z177" s="4"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="69" t="s">
         <v>1027</v>
       </c>
@@ -12093,7 +12228,7 @@
       <c r="Y178" s="4"/>
       <c r="Z178" s="4"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="69" t="s">
         <v>1027</v>
       </c>
@@ -12137,7 +12272,7 @@
       <c r="Y179" s="4"/>
       <c r="Z179" s="4"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="69" t="s">
         <v>1027</v>
       </c>
@@ -12181,11 +12316,11 @@
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="69" t="s">
         <v>1027</v>
       </c>
-      <c r="B181" s="73" t="s">
+      <c r="B181" s="110" t="s">
         <v>562</v>
       </c>
       <c r="C181" s="55">
@@ -12225,7 +12360,7 @@
       <c r="Y181" s="4"/>
       <c r="Z181" s="4"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="69" t="s">
         <v>1027</v>
       </c>
@@ -12269,7 +12404,7 @@
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="69" t="s">
         <v>1027</v>
       </c>
@@ -12313,7 +12448,7 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="69" t="s">
         <v>1027</v>
       </c>
@@ -12361,7 +12496,7 @@
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="74" t="s">
         <v>574</v>
       </c>
@@ -12405,7 +12540,7 @@
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="74" t="s">
         <v>574</v>
       </c>
@@ -12449,7 +12584,7 @@
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="74" t="s">
         <v>574</v>
       </c>
@@ -12493,7 +12628,7 @@
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="74" t="s">
         <v>574</v>
       </c>
@@ -12541,7 +12676,7 @@
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="74" t="s">
         <v>574</v>
       </c>
@@ -12587,7 +12722,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="74" t="s">
         <v>574</v>
       </c>
@@ -12633,7 +12768,7 @@
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="74" t="s">
         <v>574</v>
       </c>
@@ -12679,7 +12814,7 @@
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="74" t="s">
         <v>574</v>
       </c>
@@ -12723,7 +12858,7 @@
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="74" t="s">
         <v>574</v>
       </c>
@@ -12769,7 +12904,7 @@
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="74" t="s">
         <v>574</v>
       </c>
@@ -12813,7 +12948,7 @@
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="74" t="s">
         <v>574</v>
       </c>
@@ -12857,7 +12992,7 @@
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="74" t="s">
         <v>574</v>
       </c>
@@ -12901,7 +13036,7 @@
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="74" t="s">
         <v>574</v>
       </c>
@@ -12947,7 +13082,7 @@
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="74" t="s">
         <v>574</v>
       </c>
@@ -12991,7 +13126,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="74" t="s">
         <v>574</v>
       </c>
@@ -13037,7 +13172,7 @@
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="74" t="s">
         <v>574</v>
       </c>
@@ -13083,7 +13218,7 @@
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="74" t="s">
         <v>574</v>
       </c>
@@ -13127,7 +13262,7 @@
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="74" t="s">
         <v>574</v>
       </c>
@@ -13171,7 +13306,7 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="74" t="s">
         <v>574</v>
       </c>
@@ -13215,7 +13350,7 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="74" t="s">
         <v>574</v>
       </c>
@@ -13259,7 +13394,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="74" t="s">
         <v>574</v>
       </c>
@@ -13305,7 +13440,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="74" t="s">
         <v>574</v>
       </c>
@@ -13349,7 +13484,7 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="74" t="s">
         <v>574</v>
       </c>
@@ -13395,7 +13530,7 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="74" t="s">
         <v>574</v>
       </c>
@@ -13439,7 +13574,7 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="74" t="s">
         <v>574</v>
       </c>
@@ -13483,7 +13618,7 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="74" t="s">
         <v>574</v>
       </c>
@@ -13527,7 +13662,7 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="74" t="s">
         <v>574</v>
       </c>
@@ -13571,7 +13706,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="74" t="s">
         <v>574</v>
       </c>
@@ -13615,7 +13750,7 @@
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="74" t="s">
         <v>574</v>
       </c>
@@ -13661,7 +13796,7 @@
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="74" t="s">
         <v>574</v>
       </c>
@@ -13705,7 +13840,7 @@
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="74" t="s">
         <v>574</v>
       </c>
@@ -13749,7 +13884,7 @@
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="74" t="s">
         <v>574</v>
       </c>
@@ -13795,7 +13930,7 @@
       <c r="Y216" s="10"/>
       <c r="Z216" s="10"/>
     </row>
-    <row r="217" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="74" t="s">
         <v>574</v>
       </c>
@@ -13839,7 +13974,7 @@
       <c r="Y217" s="10"/>
       <c r="Z217" s="10"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="74" t="s">
         <v>574</v>
       </c>
@@ -13883,7 +14018,7 @@
       <c r="Y218" s="10"/>
       <c r="Z218" s="10"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="74" t="s">
         <v>574</v>
       </c>
@@ -13927,7 +14062,7 @@
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="74" t="s">
         <v>574</v>
       </c>
@@ -13971,7 +14106,7 @@
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="74" t="s">
         <v>574</v>
       </c>
@@ -14015,7 +14150,7 @@
       <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="74" t="s">
         <v>574</v>
       </c>
@@ -14059,7 +14194,7 @@
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="74" t="s">
         <v>574</v>
       </c>
@@ -14103,7 +14238,7 @@
       <c r="Y223" s="10"/>
       <c r="Z223" s="10"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="74" t="s">
         <v>574</v>
       </c>
@@ -14147,7 +14282,7 @@
       <c r="Y224" s="4"/>
       <c r="Z224" s="4"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="74" t="s">
         <v>574</v>
       </c>
@@ -14193,7 +14328,7 @@
       <c r="Y225" s="4"/>
       <c r="Z225" s="4"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="74" t="s">
         <v>574</v>
       </c>
@@ -14239,7 +14374,7 @@
       <c r="Y226" s="4"/>
       <c r="Z226" s="4"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="74" t="s">
         <v>574</v>
       </c>
@@ -14285,7 +14420,7 @@
       <c r="Y227" s="4"/>
       <c r="Z227" s="4"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="74" t="s">
         <v>574</v>
       </c>
@@ -14329,7 +14464,7 @@
       <c r="Y228" s="4"/>
       <c r="Z228" s="4"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="74" t="s">
         <v>574</v>
       </c>
@@ -14373,7 +14508,7 @@
       <c r="Y229" s="10"/>
       <c r="Z229" s="10"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="74" t="s">
         <v>574</v>
       </c>
@@ -14417,7 +14552,7 @@
       <c r="Y230" s="10"/>
       <c r="Z230" s="10"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="74" t="s">
         <v>574</v>
       </c>
@@ -14463,7 +14598,7 @@
       <c r="Y231" s="4"/>
       <c r="Z231" s="4"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="74" t="s">
         <v>574</v>
       </c>
@@ -14507,7 +14642,7 @@
       <c r="Y232" s="4"/>
       <c r="Z232" s="4"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="74" t="s">
         <v>574</v>
       </c>
@@ -14551,7 +14686,7 @@
       <c r="Y233" s="4"/>
       <c r="Z233" s="4"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="74" t="s">
         <v>574</v>
       </c>
@@ -14585,7 +14720,7 @@
       <c r="K234" s="26"/>
       <c r="L234" s="3"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="74" t="s">
         <v>574</v>
       </c>
@@ -14615,7 +14750,7 @@
       <c r="K235" s="26"/>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="74" t="s">
         <v>574</v>
       </c>
@@ -14645,7 +14780,7 @@
       <c r="K236" s="26"/>
       <c r="L236" s="3"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="74" t="s">
         <v>574</v>
       </c>
@@ -14675,7 +14810,7 @@
       <c r="K237" s="26"/>
       <c r="L237" s="3"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="74" t="s">
         <v>574</v>
       </c>
@@ -14719,7 +14854,7 @@
       <c r="Y238" s="4"/>
       <c r="Z238" s="4"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="74" t="s">
         <v>574</v>
       </c>
@@ -14767,7 +14902,7 @@
       <c r="Y239" s="4"/>
       <c r="Z239" s="4"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="74" t="s">
         <v>574</v>
       </c>
@@ -14811,7 +14946,7 @@
       <c r="Y240" s="4"/>
       <c r="Z240" s="4"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="74" t="s">
         <v>574</v>
       </c>
@@ -14857,7 +14992,7 @@
       <c r="Y241" s="10"/>
       <c r="Z241" s="10"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="74" t="s">
         <v>574</v>
       </c>
@@ -14899,7 +15034,7 @@
       <c r="Y242" s="10"/>
       <c r="Z242" s="10"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="74" t="s">
         <v>574</v>
       </c>
@@ -14937,7 +15072,7 @@
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="74" t="s">
         <v>574</v>
       </c>
@@ -14981,7 +15116,7 @@
       <c r="Y244" s="4"/>
       <c r="Z244" s="4"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="74" t="s">
         <v>574</v>
       </c>
@@ -15025,7 +15160,7 @@
       <c r="Y245" s="4"/>
       <c r="Z245" s="4"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="74" t="s">
         <v>574</v>
       </c>
@@ -15069,7 +15204,7 @@
       <c r="Y246" s="4"/>
       <c r="Z246" s="4"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="74" t="s">
         <v>574</v>
       </c>
@@ -15113,7 +15248,7 @@
       <c r="Y247" s="4"/>
       <c r="Z247" s="4"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="74" t="s">
         <v>574</v>
       </c>
@@ -15157,7 +15292,7 @@
       <c r="Y248" s="4"/>
       <c r="Z248" s="4"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="74" t="s">
         <v>574</v>
       </c>
@@ -15201,7 +15336,7 @@
       <c r="Y249" s="10"/>
       <c r="Z249" s="10"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="74" t="s">
         <v>574</v>
       </c>
@@ -15245,7 +15380,7 @@
       <c r="Y250" s="4"/>
       <c r="Z250" s="4"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="74" t="s">
         <v>574</v>
       </c>
@@ -15289,7 +15424,7 @@
       <c r="Y251" s="4"/>
       <c r="Z251" s="4"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="74" t="s">
         <v>574</v>
       </c>
@@ -15333,7 +15468,7 @@
       <c r="Y252" s="4"/>
       <c r="Z252" s="4"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15379,7 +15514,7 @@
       <c r="Y253" s="4"/>
       <c r="Z253" s="4"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15423,7 +15558,7 @@
       <c r="Y254" s="4"/>
       <c r="Z254" s="4"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15469,8 +15604,8 @@
       <c r="Y255" s="4"/>
       <c r="Z255" s="4"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A256" s="77" t="s">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="111" t="s">
         <v>1023</v>
       </c>
       <c r="B256" s="68" t="s">
@@ -15513,7 +15648,7 @@
       <c r="Y256" s="4"/>
       <c r="Z256" s="4"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15557,7 +15692,7 @@
       <c r="Y257" s="4"/>
       <c r="Z257" s="4"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15603,7 +15738,7 @@
       <c r="Y258" s="4"/>
       <c r="Z258" s="4"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15647,7 +15782,7 @@
       <c r="Y259" s="4"/>
       <c r="Z259" s="4"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15691,7 +15826,7 @@
       <c r="Y260" s="4"/>
       <c r="Z260" s="4"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15737,7 +15872,7 @@
       <c r="Y261" s="4"/>
       <c r="Z261" s="4"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15781,7 +15916,7 @@
       <c r="Y262" s="4"/>
       <c r="Z262" s="4"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15825,7 +15960,7 @@
       <c r="Y263" s="4"/>
       <c r="Z263" s="4"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15871,7 +16006,7 @@
       <c r="Y264" s="4"/>
       <c r="Z264" s="4"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15915,7 +16050,7 @@
       <c r="Y265" s="4"/>
       <c r="Z265" s="4"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="77" t="s">
         <v>1023</v>
       </c>
@@ -15959,7 +16094,7 @@
       <c r="Y266" s="4"/>
       <c r="Z266" s="4"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16003,7 +16138,7 @@
       <c r="Y267" s="4"/>
       <c r="Z267" s="4"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16049,7 +16184,7 @@
       <c r="Y268" s="4"/>
       <c r="Z268" s="4"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16095,7 +16230,7 @@
       <c r="Y269" s="4"/>
       <c r="Z269" s="4"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16139,7 +16274,7 @@
       <c r="Y270" s="4"/>
       <c r="Z270" s="4"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16183,7 +16318,7 @@
       <c r="Y271" s="10"/>
       <c r="Z271" s="10"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16227,7 +16362,7 @@
       <c r="Y272" s="10"/>
       <c r="Z272" s="10"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16273,7 +16408,7 @@
       <c r="Y273" s="10"/>
       <c r="Z273" s="10"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16317,7 +16452,7 @@
       <c r="Y274" s="4"/>
       <c r="Z274" s="4"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16361,7 +16496,7 @@
       <c r="Y275" s="4"/>
       <c r="Z275" s="4"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16407,7 +16542,7 @@
       <c r="Y276" s="4"/>
       <c r="Z276" s="4"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16453,7 +16588,7 @@
       <c r="Y277" s="10"/>
       <c r="Z277" s="10"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16497,7 +16632,7 @@
       <c r="Y278" s="10"/>
       <c r="Z278" s="10"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16527,7 +16662,7 @@
       <c r="K279" s="33"/>
       <c r="L279" s="12"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16557,7 +16692,7 @@
       <c r="K280" s="26"/>
       <c r="L280" s="3"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16605,7 +16740,7 @@
       <c r="Y281" s="4"/>
       <c r="Z281" s="4"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16651,11 +16786,11 @@
       <c r="Y282" s="4"/>
       <c r="Z282" s="4"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="77" t="s">
         <v>1023</v>
       </c>
-      <c r="B283" s="68" t="s">
+      <c r="B283" s="112" t="s">
         <v>844</v>
       </c>
       <c r="C283" s="55">
@@ -16695,7 +16830,7 @@
       <c r="Y283" s="10"/>
       <c r="Z283" s="10"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16739,7 +16874,7 @@
       <c r="Y284" s="10"/>
       <c r="Z284" s="10"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16761,7 +16896,7 @@
       <c r="G285" s="56" t="s">
         <v>856</v>
       </c>
-      <c r="H285" s="32" t="s">
+      <c r="H285" s="113" t="s">
         <v>857</v>
       </c>
       <c r="I285" s="33"/>
@@ -16783,7 +16918,7 @@
       <c r="Y285" s="10"/>
       <c r="Z285" s="10"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16827,11 +16962,11 @@
       <c r="Y286" s="4"/>
       <c r="Z286" s="4"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="77" t="s">
         <v>1023</v>
       </c>
-      <c r="B287" s="68" t="s">
+      <c r="B287" s="112" t="s">
         <v>854</v>
       </c>
       <c r="C287" s="52">
@@ -16871,7 +17006,7 @@
       <c r="Y287" s="10"/>
       <c r="Z287" s="10"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="77" t="s">
         <v>1023</v>
       </c>
@@ -16915,7 +17050,7 @@
       <c r="Y288" s="10"/>
       <c r="Z288" s="10"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="78" t="s">
         <v>1028</v>
       </c>
@@ -16957,7 +17092,7 @@
       <c r="Y289" s="10"/>
       <c r="Z289" s="10"/>
     </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17001,7 +17136,7 @@
       <c r="Y290" s="4"/>
       <c r="Z290" s="4"/>
     </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17045,7 +17180,7 @@
       <c r="Y291" s="4"/>
       <c r="Z291" s="4"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17091,7 +17226,7 @@
       <c r="Y292" s="4"/>
       <c r="Z292" s="4"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17135,7 +17270,7 @@
       <c r="Y293" s="4"/>
       <c r="Z293" s="4"/>
     </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17179,7 +17314,7 @@
       <c r="Y294" s="4"/>
       <c r="Z294" s="4"/>
     </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17225,7 +17360,7 @@
       <c r="Y295" s="4"/>
       <c r="Z295" s="4"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17273,7 +17408,7 @@
       <c r="Y296" s="4"/>
       <c r="Z296" s="4"/>
     </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17317,7 +17452,7 @@
       <c r="Y297" s="4"/>
       <c r="Z297" s="4"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17361,7 +17496,7 @@
       <c r="Y298" s="4"/>
       <c r="Z298" s="4"/>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17405,7 +17540,7 @@
       <c r="Y299" s="4"/>
       <c r="Z299" s="4"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17449,7 +17584,7 @@
       <c r="Y300" s="4"/>
       <c r="Z300" s="4"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17495,7 +17630,7 @@
       <c r="Y301" s="4"/>
       <c r="Z301" s="4"/>
     </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17539,7 +17674,7 @@
       <c r="Y302" s="4"/>
       <c r="Z302" s="4"/>
     </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17583,7 +17718,7 @@
       <c r="Y303" s="4"/>
       <c r="Z303" s="4"/>
     </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17631,7 +17766,7 @@
       <c r="Y304" s="4"/>
       <c r="Z304" s="4"/>
     </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17675,7 +17810,7 @@
       <c r="Y305" s="4"/>
       <c r="Z305" s="4"/>
     </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17719,7 +17854,7 @@
       <c r="Y306" s="4"/>
       <c r="Z306" s="4"/>
     </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17763,7 +17898,7 @@
       <c r="Y307" s="4"/>
       <c r="Z307" s="4"/>
     </row>
-    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17807,7 +17942,7 @@
       <c r="Y308" s="4"/>
       <c r="Z308" s="4"/>
     </row>
-    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17851,7 +17986,7 @@
       <c r="Y309" s="4"/>
       <c r="Z309" s="4"/>
     </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17895,7 +18030,7 @@
       <c r="Y310" s="4"/>
       <c r="Z310" s="4"/>
     </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17941,7 +18076,7 @@
       <c r="Y311" s="4"/>
       <c r="Z311" s="4"/>
     </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="78" t="s">
         <v>1028</v>
       </c>
@@ -17985,7 +18120,7 @@
       <c r="Y312" s="4"/>
       <c r="Z312" s="4"/>
     </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18029,7 +18164,7 @@
       <c r="Y313" s="4"/>
       <c r="Z313" s="4"/>
     </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18073,7 +18208,7 @@
       <c r="Y314" s="4"/>
       <c r="Z314" s="4"/>
     </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18117,7 +18252,7 @@
       <c r="Y315" s="4"/>
       <c r="Z315" s="4"/>
     </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18161,7 +18296,7 @@
       <c r="Y316" s="4"/>
       <c r="Z316" s="4"/>
     </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18205,7 +18340,7 @@
       <c r="Y317" s="4"/>
       <c r="Z317" s="4"/>
     </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18249,7 +18384,7 @@
       <c r="Y318" s="4"/>
       <c r="Z318" s="4"/>
     </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18295,7 +18430,7 @@
       <c r="Y319" s="4"/>
       <c r="Z319" s="4"/>
     </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18341,7 +18476,7 @@
       <c r="Y320" s="4"/>
       <c r="Z320" s="4"/>
     </row>
-    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18387,7 +18522,7 @@
       <c r="Y321" s="4"/>
       <c r="Z321" s="4"/>
     </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18431,7 +18566,7 @@
       <c r="Y322" s="4"/>
       <c r="Z322" s="4"/>
     </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18477,7 +18612,7 @@
       <c r="Y323" s="4"/>
       <c r="Z323" s="4"/>
     </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18525,7 +18660,7 @@
       <c r="Y324" s="4"/>
       <c r="Z324" s="4"/>
     </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18571,7 +18706,7 @@
       <c r="Y325" s="15"/>
       <c r="Z325" s="15"/>
     </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18615,7 +18750,7 @@
       <c r="Y326" s="4"/>
       <c r="Z326" s="4"/>
     </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18661,7 +18796,7 @@
       <c r="Y327" s="4"/>
       <c r="Z327" s="4"/>
     </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18705,7 +18840,7 @@
       <c r="Y328" s="4"/>
       <c r="Z328" s="4"/>
     </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="78" t="s">
         <v>1028</v>
       </c>
@@ -18749,7 +18884,7 @@
       <c r="Y329" s="4"/>
       <c r="Z329" s="4"/>
     </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="79" t="s">
         <v>1025</v>
       </c>
@@ -18793,7 +18928,7 @@
       <c r="Y330" s="4"/>
       <c r="Z330" s="4"/>
     </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="79" t="s">
         <v>1025</v>
       </c>
@@ -18841,11 +18976,11 @@
       <c r="Y331" s="4"/>
       <c r="Z331" s="4"/>
     </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="79" t="s">
         <v>1025</v>
       </c>
-      <c r="B332" s="80" t="s">
+      <c r="B332" s="114" t="s">
         <v>995</v>
       </c>
       <c r="C332" s="52">
@@ -18887,7 +19022,7 @@
       <c r="Y332" s="4"/>
       <c r="Z332" s="4"/>
     </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="79" t="s">
         <v>1025</v>
       </c>
@@ -18931,7 +19066,7 @@
       <c r="Y333" s="4"/>
       <c r="Z333" s="4"/>
     </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="79" t="s">
         <v>1025</v>
       </c>
@@ -18975,7 +19110,7 @@
       <c r="Y334" s="10"/>
       <c r="Z334" s="10"/>
     </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="79" t="s">
         <v>1025</v>
       </c>
@@ -19023,7 +19158,7 @@
       <c r="Y335" s="10"/>
       <c r="Z335" s="10"/>
     </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="79" t="s">
         <v>1025</v>
       </c>
@@ -19071,7 +19206,7 @@
       <c r="Y336" s="4"/>
       <c r="Z336" s="4"/>
     </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="79" t="s">
         <v>1025</v>
       </c>
@@ -19119,7 +19254,7 @@
       <c r="Y337" s="4"/>
       <c r="Z337" s="4"/>
     </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="79" t="s">
         <v>1025</v>
       </c>
@@ -19165,7 +19300,7 @@
       <c r="Y338" s="4"/>
       <c r="Z338" s="4"/>
     </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="79" t="s">
         <v>1025</v>
       </c>
@@ -19213,7 +19348,7 @@
       <c r="Y339" s="4"/>
       <c r="Z339" s="4"/>
     </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B340" s="4"/>
       <c r="F340">
         <f>COUNTIF(F2:F339,"China")</f>
@@ -19236,7 +19371,7 @@
       <c r="Y340" s="4"/>
       <c r="Z340" s="4"/>
     </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K341" s="12"/>
       <c r="L341" s="12"/>
       <c r="M341" s="10"/>
@@ -19254,742 +19389,742 @@
       <c r="Y341" s="10"/>
       <c r="Z341" s="10"/>
     </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1036" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1037" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1038" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1039" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1045" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1046" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1050" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1052" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1053" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1054" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1055" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1056" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1057" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1058" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1059" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1061" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1062" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1063" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1064" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1065" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1066" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1067" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1068" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1069" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1070" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1071" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1072" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1073" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1074" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1075" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1076" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="1077" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1036" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1037" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1038" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1039" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1045" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1046" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1050" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1052" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1053" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1054" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1055" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1056" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1057" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1058" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1059" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1061" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1062" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1063" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1064" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1065" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1066" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1067" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1068" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1069" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1070" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1071" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1072" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1073" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1074" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1075" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1076" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1077" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -20528,7 +20663,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
@@ -20538,7 +20673,7 @@
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1018</v>
       </c>
@@ -20564,7 +20699,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -20596,7 +20731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -20628,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -20660,7 +20795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -20695,7 +20830,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -20730,7 +20865,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -20765,7 +20900,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -20800,7 +20935,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -20835,7 +20970,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -20870,7 +21005,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -20902,7 +21037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -20934,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -20966,7 +21101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -20998,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -21030,7 +21165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -21062,7 +21197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -21094,7 +21229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -21126,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -21158,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -21190,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>212</v>
       </c>
@@ -21222,7 +21357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -21254,7 +21389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>395</v>
       </c>
@@ -21286,7 +21421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>263</v>
       </c>
@@ -21318,7 +21453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>278</v>
       </c>
@@ -21350,7 +21485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -21382,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>301</v>
       </c>
@@ -21414,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -21446,7 +21581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>339</v>
       </c>
@@ -21478,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>348</v>
       </c>
@@ -21510,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>357</v>
       </c>
@@ -21542,7 +21677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>388</v>
       </c>
@@ -21574,7 +21709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>458</v>
       </c>
@@ -21606,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>499</v>
       </c>
@@ -21638,7 +21773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>543</v>
       </c>
@@ -21670,7 +21805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>551</v>
       </c>
@@ -21702,7 +21837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>567</v>
       </c>
@@ -21734,7 +21869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>604</v>
       </c>
@@ -21766,7 +21901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>674</v>
       </c>
@@ -21798,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>687</v>
       </c>
@@ -21830,7 +21965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>693</v>
       </c>
@@ -21862,7 +21997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>714</v>
       </c>
@@ -21894,7 +22029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>772</v>
       </c>
@@ -21926,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>818</v>
       </c>
@@ -21958,7 +22093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>855</v>
       </c>
@@ -21990,7 +22125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>860</v>
       </c>
@@ -22022,7 +22157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>864</v>
       </c>
@@ -22054,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>887</v>
       </c>
@@ -22086,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>896</v>
       </c>
@@ -22118,7 +22253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>903</v>
       </c>
@@ -22150,7 +22285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>927</v>
       </c>
@@ -22182,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>985</v>
       </c>
@@ -22223,11 +22358,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01921E56-B6A5-A040-9F6E-55D71E761F2B}">
   <dimension ref="A1:AB338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="134" workbookViewId="0">
+    <sheetView topLeftCell="A188" zoomScale="134" workbookViewId="0">
       <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
@@ -22240,7 +22375,7 @@
     <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -22273,7 +22408,7 @@
       <c r="L1" s="26"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22323,7 +22458,7 @@
       <c r="AA2" s="81"/>
       <c r="AB2" s="81"/>
     </row>
-    <row r="3" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22356,7 +22491,7 @@
       <c r="L3" s="35"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22393,7 +22528,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22428,7 +22563,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22461,7 +22596,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22494,7 +22629,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="46"/>
     </row>
-    <row r="8" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22529,7 +22664,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22562,7 +22697,7 @@
       <c r="L9" s="87"/>
       <c r="M9" s="60"/>
     </row>
-    <row r="10" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22599,7 +22734,7 @@
       <c r="L10" s="35"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22632,7 +22767,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22665,7 +22800,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22698,7 +22833,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22731,7 +22866,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22766,7 +22901,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22803,7 +22938,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22842,7 +22977,7 @@
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22879,7 +23014,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22912,7 +23047,7 @@
       <c r="L19" s="35"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22945,7 +23080,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="69" t="s">
         <v>1027</v>
       </c>
@@ -22978,7 +23113,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23011,7 +23146,7 @@
       <c r="L22" s="35"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23044,7 +23179,7 @@
       <c r="L23" s="35"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23081,7 +23216,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23114,7 +23249,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23151,7 +23286,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23184,7 +23319,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23217,7 +23352,7 @@
       <c r="L28" s="35"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23252,7 +23387,7 @@
       <c r="L29" s="35"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23285,7 +23420,7 @@
       <c r="L30" s="26"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23318,7 +23453,7 @@
       <c r="L31" s="26"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23355,7 +23490,7 @@
       <c r="L32" s="26"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23390,7 +23525,7 @@
       <c r="L33" s="26"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23425,7 +23560,7 @@
       <c r="L34" s="35"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23458,7 +23593,7 @@
       <c r="L35" s="35"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23493,7 +23628,7 @@
       <c r="L36" s="35"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23526,7 +23661,7 @@
       <c r="L37" s="26"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23559,7 +23694,7 @@
       <c r="L38" s="35"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23592,7 +23727,7 @@
       <c r="L39" s="31"/>
       <c r="M39" s="46"/>
     </row>
-    <row r="40" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23625,7 +23760,7 @@
       <c r="L40" s="26"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23658,7 +23793,7 @@
       <c r="L41" s="35"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23691,7 +23826,7 @@
       <c r="L42" s="35"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23728,7 +23863,7 @@
       <c r="L43" s="26"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23765,7 +23900,7 @@
       <c r="L44" s="30"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23798,7 +23933,7 @@
       <c r="L45" s="35"/>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23831,7 +23966,7 @@
       <c r="L46" s="35"/>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23866,7 +24001,7 @@
       <c r="L47" s="35"/>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23901,7 +24036,7 @@
       <c r="L48" s="35"/>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23936,7 +24071,7 @@
       <c r="L49" s="35"/>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="69" t="s">
         <v>1027</v>
       </c>
@@ -23969,7 +24104,7 @@
       <c r="L50" s="31"/>
       <c r="M50" s="46"/>
     </row>
-    <row r="51" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24004,7 +24139,7 @@
       <c r="L51" s="30"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24041,7 +24176,7 @@
       <c r="L52" s="30"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24074,7 +24209,7 @@
       <c r="L53" s="26"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24109,7 +24244,7 @@
       <c r="L54" s="26"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24142,7 +24277,7 @@
       <c r="L55" s="26"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24177,7 +24312,7 @@
       <c r="L56" s="35"/>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24212,7 +24347,7 @@
       <c r="L57" s="35"/>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24245,7 +24380,7 @@
       <c r="L58" s="26"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24278,7 +24413,7 @@
       <c r="L59" s="35"/>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24313,7 +24448,7 @@
       <c r="L60" s="26"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24346,7 +24481,7 @@
       <c r="L61" s="35"/>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24379,7 +24514,7 @@
       <c r="L62" s="26"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24414,7 +24549,7 @@
       <c r="L63" s="26"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24451,7 +24586,7 @@
       <c r="L64" s="35"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24484,7 +24619,7 @@
       <c r="L65" s="26"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24519,7 +24654,7 @@
       <c r="L66" s="26"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24552,7 +24687,7 @@
       <c r="L67" s="35"/>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24587,7 +24722,7 @@
       <c r="L68" s="35"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24620,7 +24755,7 @@
       <c r="L69" s="26"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24657,7 +24792,7 @@
       <c r="L70" s="30"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24690,7 +24825,7 @@
       <c r="L71" s="31"/>
       <c r="M71" s="46"/>
     </row>
-    <row r="72" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24723,7 +24858,7 @@
       <c r="L72" s="35"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24756,7 +24891,7 @@
       <c r="L73" s="35"/>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24789,7 +24924,7 @@
       <c r="L74" s="35"/>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24822,7 +24957,7 @@
       <c r="L75" s="35"/>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24859,7 +24994,7 @@
       <c r="L76" s="35"/>
       <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24892,7 +25027,7 @@
       <c r="L77" s="26"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24925,7 +25060,7 @@
       <c r="L78" s="26"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24962,7 +25097,7 @@
       <c r="L79" s="26"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="69" t="s">
         <v>1027</v>
       </c>
@@ -24995,7 +25130,7 @@
       <c r="L80" s="35"/>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="69" t="s">
         <v>1027</v>
       </c>
@@ -25030,7 +25165,7 @@
       <c r="L81" s="35"/>
       <c r="M81" s="4"/>
     </row>
-    <row r="82" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="69" t="s">
         <v>1027</v>
       </c>
@@ -25063,7 +25198,7 @@
       <c r="L82" s="35"/>
       <c r="M82" s="4"/>
     </row>
-    <row r="83" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="69" t="s">
         <v>1027</v>
       </c>
@@ -25098,7 +25233,7 @@
       <c r="L83" s="26"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="69" t="s">
         <v>1027</v>
       </c>
@@ -25131,7 +25266,7 @@
       <c r="L84" s="35"/>
       <c r="M84" s="4"/>
     </row>
-    <row r="85" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="69" t="s">
         <v>1027</v>
       </c>
@@ -25164,7 +25299,7 @@
       <c r="L85" s="26"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="69" t="s">
         <v>1027</v>
       </c>
@@ -25201,7 +25336,7 @@
       <c r="L86" s="26"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="74" t="s">
         <v>574</v>
       </c>
@@ -25234,7 +25369,7 @@
       <c r="L87" s="35"/>
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="74" t="s">
         <v>574</v>
       </c>
@@ -25267,7 +25402,7 @@
       <c r="L88" s="26"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="74" t="s">
         <v>574</v>
       </c>
@@ -25300,7 +25435,7 @@
       <c r="L89" s="26"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="74" t="s">
         <v>574</v>
       </c>
@@ -25333,7 +25468,7 @@
       <c r="L90" s="35"/>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="74" t="s">
         <v>574</v>
       </c>
@@ -25366,7 +25501,7 @@
       <c r="L91" s="35"/>
       <c r="M91" s="4"/>
     </row>
-    <row r="92" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="74" t="s">
         <v>574</v>
       </c>
@@ -25401,7 +25536,7 @@
       <c r="L92" s="35"/>
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="74" t="s">
         <v>574</v>
       </c>
@@ -25436,7 +25571,7 @@
       <c r="L93" s="35"/>
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="74" t="s">
         <v>574</v>
       </c>
@@ -25471,7 +25606,7 @@
       <c r="L94" s="35"/>
       <c r="M94" s="4"/>
     </row>
-    <row r="95" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="74" t="s">
         <v>574</v>
       </c>
@@ -25504,7 +25639,7 @@
       <c r="L95" s="35"/>
       <c r="M95" s="4"/>
     </row>
-    <row r="96" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="74" t="s">
         <v>574</v>
       </c>
@@ -25537,7 +25672,7 @@
       <c r="L96" s="35"/>
       <c r="M96" s="4"/>
     </row>
-    <row r="97" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="74" t="s">
         <v>574</v>
       </c>
@@ -25570,7 +25705,7 @@
       <c r="L97" s="33"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="74" t="s">
         <v>574</v>
       </c>
@@ -25603,7 +25738,7 @@
       <c r="L98" s="35"/>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="74" t="s">
         <v>574</v>
       </c>
@@ -25636,7 +25771,7 @@
       <c r="L99" s="26"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="74" t="s">
         <v>574</v>
       </c>
@@ -25669,7 +25804,7 @@
       <c r="L100" s="26"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="74" t="s">
         <v>574</v>
       </c>
@@ -25702,7 +25837,7 @@
       <c r="L101" s="35"/>
       <c r="M101" s="4"/>
     </row>
-    <row r="102" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="74" t="s">
         <v>574</v>
       </c>
@@ -25737,7 +25872,7 @@
       <c r="L102" s="26"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="74" t="s">
         <v>574</v>
       </c>
@@ -25770,7 +25905,7 @@
       <c r="L103" s="33"/>
       <c r="M103" s="12"/>
     </row>
-    <row r="104" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="74" t="s">
         <v>574</v>
       </c>
@@ -25803,7 +25938,7 @@
       <c r="L104" s="33"/>
       <c r="M104" s="12"/>
     </row>
-    <row r="105" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="74" t="s">
         <v>574</v>
       </c>
@@ -25836,7 +25971,7 @@
       <c r="L105" s="35"/>
       <c r="M105" s="4"/>
     </row>
-    <row r="106" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="74" t="s">
         <v>574</v>
       </c>
@@ -25869,7 +26004,7 @@
       <c r="L106" s="35"/>
       <c r="M106" s="4"/>
     </row>
-    <row r="107" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="74" t="s">
         <v>574</v>
       </c>
@@ -25904,7 +26039,7 @@
       <c r="L107" s="26"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="74" t="s">
         <v>574</v>
       </c>
@@ -25939,7 +26074,7 @@
       <c r="L108" s="99"/>
       <c r="M108" s="12"/>
     </row>
-    <row r="109" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="74" t="s">
         <v>574</v>
       </c>
@@ -25972,7 +26107,7 @@
       <c r="L109" s="35"/>
       <c r="M109" s="4"/>
     </row>
-    <row r="110" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="74" t="s">
         <v>574</v>
       </c>
@@ -26005,7 +26140,7 @@
       <c r="L110" s="35"/>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="74" t="s">
         <v>574</v>
       </c>
@@ -26038,7 +26173,7 @@
       <c r="L111" s="35"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="74" t="s">
         <v>574</v>
       </c>
@@ -26073,7 +26208,7 @@
       <c r="L112" s="26"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="74" t="s">
         <v>574</v>
       </c>
@@ -26108,7 +26243,7 @@
       <c r="L113" s="30"/>
       <c r="M113" s="46"/>
     </row>
-    <row r="114" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="74" t="s">
         <v>574</v>
       </c>
@@ -26143,7 +26278,7 @@
       <c r="L114" s="35"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="74" t="s">
         <v>574</v>
       </c>
@@ -26176,7 +26311,7 @@
       <c r="L115" s="26"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="74" t="s">
         <v>574</v>
       </c>
@@ -26213,7 +26348,7 @@
       <c r="L116" s="35"/>
       <c r="M116" s="4"/>
     </row>
-    <row r="117" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="74" t="s">
         <v>574</v>
       </c>
@@ -26246,7 +26381,7 @@
       <c r="L117" s="35"/>
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="74" t="s">
         <v>574</v>
       </c>
@@ -26279,7 +26414,7 @@
       <c r="L118" s="35"/>
       <c r="M118" s="4"/>
     </row>
-    <row r="119" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="74" t="s">
         <v>574</v>
       </c>
@@ -26314,7 +26449,7 @@
       <c r="L119" s="35"/>
       <c r="M119" s="4"/>
     </row>
-    <row r="120" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="74" t="s">
         <v>574</v>
       </c>
@@ -26347,7 +26482,7 @@
       <c r="L120" s="26"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="74" t="s">
         <v>574</v>
       </c>
@@ -26380,7 +26515,7 @@
       <c r="L121" s="26"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="74" t="s">
         <v>574</v>
       </c>
@@ -26413,7 +26548,7 @@
       <c r="L122" s="35"/>
       <c r="M122" s="4"/>
     </row>
-    <row r="123" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="74" t="s">
         <v>574</v>
       </c>
@@ -26448,7 +26583,7 @@
       <c r="L123" s="30"/>
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="74" t="s">
         <v>574</v>
       </c>
@@ -26481,7 +26616,7 @@
       <c r="L124" s="35"/>
       <c r="M124" s="4"/>
     </row>
-    <row r="125" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="74" t="s">
         <v>574</v>
       </c>
@@ -26514,7 +26649,7 @@
       <c r="L125" s="26"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="74" t="s">
         <v>574</v>
       </c>
@@ -26547,7 +26682,7 @@
       <c r="L126" s="35"/>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="74" t="s">
         <v>574</v>
       </c>
@@ -26580,7 +26715,7 @@
       <c r="L127" s="35"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="74" t="s">
         <v>574</v>
       </c>
@@ -26613,7 +26748,7 @@
       <c r="L128" s="35"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="74" t="s">
         <v>574</v>
       </c>
@@ -26646,7 +26781,7 @@
       <c r="L129" s="33"/>
       <c r="M129" s="12"/>
     </row>
-    <row r="130" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="74" t="s">
         <v>574</v>
       </c>
@@ -26679,7 +26814,7 @@
       <c r="L130" s="35"/>
       <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="74" t="s">
         <v>574</v>
       </c>
@@ -26712,7 +26847,7 @@
       <c r="L131" s="26"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="74" t="s">
         <v>574</v>
       </c>
@@ -26749,7 +26884,7 @@
       <c r="L132" s="26"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="74" t="s">
         <v>574</v>
       </c>
@@ -26784,7 +26919,7 @@
       <c r="L133" s="26"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="74" t="s">
         <v>574</v>
       </c>
@@ -26817,7 +26952,7 @@
       <c r="L134" s="26"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="74" t="s">
         <v>574</v>
       </c>
@@ -26850,7 +26985,7 @@
       <c r="L135" s="26"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="74" t="s">
         <v>574</v>
       </c>
@@ -26885,7 +27020,7 @@
       <c r="L136" s="26"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="74" t="s">
         <v>574</v>
       </c>
@@ -26920,7 +27055,7 @@
       <c r="L137" s="35"/>
       <c r="M137" s="4"/>
     </row>
-    <row r="138" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="74" t="s">
         <v>574</v>
       </c>
@@ -26953,7 +27088,7 @@
       <c r="L138" s="35"/>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="74" t="s">
         <v>574</v>
       </c>
@@ -26986,7 +27121,7 @@
       <c r="L139" s="35"/>
       <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="74" t="s">
         <v>574</v>
       </c>
@@ -27019,7 +27154,7 @@
       <c r="L140" s="35"/>
       <c r="M140" s="4"/>
     </row>
-    <row r="141" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="74" t="s">
         <v>574</v>
       </c>
@@ -27054,7 +27189,7 @@
       <c r="L141" s="35"/>
       <c r="M141" s="4"/>
     </row>
-    <row r="142" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="74" t="s">
         <v>574</v>
       </c>
@@ -27087,7 +27222,7 @@
       <c r="L142" s="35"/>
       <c r="M142" s="4"/>
     </row>
-    <row r="143" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="74" t="s">
         <v>574</v>
       </c>
@@ -27122,7 +27257,7 @@
       <c r="L143" s="35"/>
       <c r="M143" s="4"/>
     </row>
-    <row r="144" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="74" t="s">
         <v>574</v>
       </c>
@@ -27155,7 +27290,7 @@
       <c r="L144" s="35"/>
       <c r="M144" s="4"/>
     </row>
-    <row r="145" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="74" t="s">
         <v>574</v>
       </c>
@@ -27188,7 +27323,7 @@
       <c r="L145" s="35"/>
       <c r="M145" s="4"/>
     </row>
-    <row r="146" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="74" t="s">
         <v>574</v>
       </c>
@@ -27221,7 +27356,7 @@
       <c r="L146" s="26"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="74" t="s">
         <v>574</v>
       </c>
@@ -27254,7 +27389,7 @@
       <c r="L147" s="35"/>
       <c r="M147" s="4"/>
     </row>
-    <row r="148" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="74" t="s">
         <v>574</v>
       </c>
@@ -27287,7 +27422,7 @@
       <c r="L148" s="35"/>
       <c r="M148" s="4"/>
     </row>
-    <row r="149" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="74" t="s">
         <v>574</v>
       </c>
@@ -27320,7 +27455,7 @@
       <c r="L149" s="35"/>
       <c r="M149" s="4"/>
     </row>
-    <row r="150" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="74" t="s">
         <v>574</v>
       </c>
@@ -27357,7 +27492,7 @@
       <c r="L150" s="26"/>
       <c r="M150" s="3"/>
     </row>
-    <row r="151" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="74" t="s">
         <v>574</v>
       </c>
@@ -27390,7 +27525,7 @@
       <c r="L151" s="26"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="74" t="s">
         <v>574</v>
       </c>
@@ -27423,7 +27558,7 @@
       <c r="L152" s="26"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="74" t="s">
         <v>574</v>
       </c>
@@ -27460,7 +27595,7 @@
       <c r="L153" s="33"/>
       <c r="M153" s="12"/>
     </row>
-    <row r="154" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="74" t="s">
         <v>574</v>
       </c>
@@ -27493,7 +27628,7 @@
       <c r="L154" s="35"/>
       <c r="M154" s="4"/>
     </row>
-    <row r="155" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27526,7 +27661,7 @@
       <c r="L155" s="35"/>
       <c r="M155" s="4"/>
     </row>
-    <row r="156" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27559,7 +27694,7 @@
       <c r="L156" s="35"/>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27592,7 +27727,7 @@
       <c r="L157" s="26"/>
       <c r="M157" s="3"/>
     </row>
-    <row r="158" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27625,7 +27760,7 @@
       <c r="L158" s="26"/>
       <c r="M158" s="3"/>
     </row>
-    <row r="159" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27658,7 +27793,7 @@
       <c r="L159" s="26"/>
       <c r="M159" s="3"/>
     </row>
-    <row r="160" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27693,7 +27828,7 @@
       <c r="L160" s="26"/>
       <c r="M160" s="3"/>
     </row>
-    <row r="161" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27726,7 +27861,7 @@
       <c r="L161" s="26"/>
       <c r="M161" s="3"/>
     </row>
-    <row r="162" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27759,7 +27894,7 @@
       <c r="L162" s="26"/>
       <c r="M162" s="3"/>
     </row>
-    <row r="163" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27792,7 +27927,7 @@
       <c r="L163" s="35"/>
       <c r="M163" s="4"/>
     </row>
-    <row r="164" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27827,7 +27962,7 @@
       <c r="L164" s="26"/>
       <c r="M164" s="3"/>
     </row>
-    <row r="165" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27862,7 +27997,7 @@
       <c r="L165" s="26"/>
       <c r="M165" s="3"/>
     </row>
-    <row r="166" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27897,7 +28032,7 @@
       <c r="L166" s="35"/>
       <c r="M166" s="4"/>
     </row>
-    <row r="167" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27930,7 +28065,7 @@
       <c r="L167" s="31"/>
       <c r="M167" s="46"/>
     </row>
-    <row r="168" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="78" t="s">
         <v>1028</v>
       </c>
@@ -27963,7 +28098,7 @@
       <c r="L168" s="87"/>
       <c r="M168" s="4"/>
     </row>
-    <row r="169" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28000,7 +28135,7 @@
       <c r="L169" s="26"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28033,7 +28168,7 @@
       <c r="L170" s="35"/>
       <c r="M170" s="4"/>
     </row>
-    <row r="171" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28066,7 +28201,7 @@
       <c r="L171" s="26"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28099,7 +28234,7 @@
       <c r="L172" s="35"/>
       <c r="M172" s="4"/>
     </row>
-    <row r="173" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28132,7 +28267,7 @@
       <c r="L173" s="35"/>
       <c r="M173" s="4"/>
     </row>
-    <row r="174" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A174" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28165,7 +28300,7 @@
       <c r="L174" s="35"/>
       <c r="M174" s="4"/>
     </row>
-    <row r="175" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28198,7 +28333,7 @@
       <c r="L175" s="35"/>
       <c r="M175" s="4"/>
     </row>
-    <row r="176" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28231,7 +28366,7 @@
       <c r="L176" s="35"/>
       <c r="M176" s="4"/>
     </row>
-    <row r="177" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28266,7 +28401,7 @@
       <c r="L177" s="26"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28303,7 +28438,7 @@
       <c r="L178" s="26"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28336,7 +28471,7 @@
       <c r="L179" s="26"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A180" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28369,7 +28504,7 @@
       <c r="L180" s="26"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A181" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28406,7 +28541,7 @@
       <c r="L181" s="35"/>
       <c r="M181" s="4"/>
     </row>
-    <row r="182" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A182" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28439,7 +28574,7 @@
       <c r="L182" s="35"/>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A183" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28474,7 +28609,7 @@
       <c r="L183" s="26"/>
       <c r="M183" s="3"/>
     </row>
-    <row r="184" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A184" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28507,7 +28642,7 @@
       <c r="L184" s="26"/>
       <c r="M184" s="3"/>
     </row>
-    <row r="185" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28542,7 +28677,7 @@
       <c r="L185" s="26"/>
       <c r="M185" s="3"/>
     </row>
-    <row r="186" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A186" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28575,7 +28710,7 @@
       <c r="L186" s="26"/>
       <c r="M186" s="3"/>
     </row>
-    <row r="187" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A187" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28608,7 +28743,7 @@
       <c r="L187" s="26"/>
       <c r="M187" s="3"/>
     </row>
-    <row r="188" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A188" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28641,7 +28776,7 @@
       <c r="L188" s="35"/>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A189" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28674,7 +28809,7 @@
       <c r="L189" s="35"/>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A190" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28709,7 +28844,7 @@
       <c r="L190" s="30"/>
       <c r="M190" s="4"/>
     </row>
-    <row r="191" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A191" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28742,7 +28877,7 @@
       <c r="L191" s="35"/>
       <c r="M191" s="4"/>
     </row>
-    <row r="192" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A192" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28775,7 +28910,7 @@
       <c r="L192" s="35"/>
       <c r="M192" s="4"/>
     </row>
-    <row r="193" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A193" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28808,7 +28943,7 @@
       <c r="L193" s="26"/>
       <c r="M193" s="3"/>
     </row>
-    <row r="194" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28843,7 +28978,7 @@
       <c r="L194" s="26"/>
       <c r="M194" s="3"/>
     </row>
-    <row r="195" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A195" s="78" t="s">
         <v>1028</v>
       </c>
@@ -28878,7 +29013,7 @@
       <c r="L195" s="26"/>
       <c r="M195" s="3"/>
     </row>
-    <row r="196" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A196" s="79" t="s">
         <v>1025</v>
       </c>
@@ -28915,7 +29050,7 @@
       <c r="L196" s="33"/>
       <c r="M196" s="12"/>
     </row>
-    <row r="197" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A197" s="79" t="s">
         <v>1025</v>
       </c>
@@ -28948,7 +29083,7 @@
       <c r="L197" s="35"/>
       <c r="M197" s="4"/>
     </row>
-    <row r="198" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A198" s="79" t="s">
         <v>1025</v>
       </c>
@@ -28985,7 +29120,7 @@
       <c r="L198" s="26"/>
       <c r="M198" s="3"/>
     </row>
-    <row r="199" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A199" s="79" t="s">
         <v>1025</v>
       </c>
@@ -29020,7 +29155,7 @@
       <c r="L199" s="26"/>
       <c r="M199" s="3"/>
     </row>
-    <row r="200" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A200" s="79" t="s">
         <v>1025</v>
       </c>
@@ -29053,7 +29188,7 @@
       <c r="L200" s="33"/>
       <c r="M200" s="12"/>
     </row>
-    <row r="201" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A201" s="79" t="s">
         <v>1025</v>
       </c>
@@ -29086,7 +29221,7 @@
       <c r="L201" s="26"/>
       <c r="M201" s="3"/>
     </row>
-    <row r="202" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A202" s="79" t="s">
         <v>1025</v>
       </c>
@@ -29123,7 +29258,7 @@
       <c r="L202" s="35"/>
       <c r="M202" s="4"/>
     </row>
-    <row r="203" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A203" s="79" t="s">
         <v>1025</v>
       </c>
@@ -29160,7 +29295,7 @@
       <c r="L203" s="26"/>
       <c r="M203" s="3"/>
     </row>
-    <row r="204" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A204" s="79" t="s">
         <v>1025</v>
       </c>
@@ -29195,7 +29330,7 @@
       <c r="L204" s="26"/>
       <c r="M204" s="3"/>
     </row>
-    <row r="205" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A205" s="79" t="s">
         <v>1025</v>
       </c>
@@ -29232,7 +29367,7 @@
       <c r="L205" s="26"/>
       <c r="M205" s="3"/>
     </row>
-    <row r="206" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A206" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29280,7 +29415,7 @@
       <c r="AA206" s="83"/>
       <c r="AB206" s="83"/>
     </row>
-    <row r="207" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A207" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29315,7 +29450,7 @@
       <c r="L207" s="35"/>
       <c r="M207" s="4"/>
     </row>
-    <row r="208" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A208" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29348,7 +29483,7 @@
       <c r="L208" s="26"/>
       <c r="M208" s="3"/>
     </row>
-    <row r="209" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A209" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29385,7 +29520,7 @@
       <c r="L209" s="26"/>
       <c r="M209" s="3"/>
     </row>
-    <row r="210" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A210" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29422,7 +29557,7 @@
       <c r="L210" s="30"/>
       <c r="M210" s="3"/>
     </row>
-    <row r="211" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A211" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29455,7 +29590,7 @@
       <c r="L211" s="31"/>
       <c r="M211" s="3"/>
     </row>
-    <row r="212" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A212" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29488,7 +29623,7 @@
       <c r="L212" s="35"/>
       <c r="M212" s="4"/>
     </row>
-    <row r="213" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A213" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29523,7 +29658,7 @@
       <c r="L213" s="35"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A214" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29556,7 +29691,7 @@
       <c r="L214" s="26"/>
       <c r="M214" s="3"/>
     </row>
-    <row r="215" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A215" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29589,7 +29724,7 @@
       <c r="L215" s="26"/>
       <c r="M215" s="3"/>
     </row>
-    <row r="216" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A216" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29622,7 +29757,7 @@
       <c r="L216" s="26"/>
       <c r="M216" s="3"/>
     </row>
-    <row r="217" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A217" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29657,7 +29792,7 @@
       <c r="L217" s="26"/>
       <c r="M217" s="3"/>
     </row>
-    <row r="218" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A218" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29690,7 +29825,7 @@
       <c r="L218" s="26"/>
       <c r="M218" s="3"/>
     </row>
-    <row r="219" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A219" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29725,7 +29860,7 @@
       <c r="L219" s="26"/>
       <c r="M219" s="3"/>
     </row>
-    <row r="220" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A220" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29760,7 +29895,7 @@
       <c r="L220" s="26"/>
       <c r="M220" s="3"/>
     </row>
-    <row r="221" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A221" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29793,7 +29928,7 @@
       <c r="L221" s="26"/>
       <c r="M221" s="3"/>
     </row>
-    <row r="222" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A222" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29826,7 +29961,7 @@
       <c r="L222" s="26"/>
       <c r="M222" s="3"/>
     </row>
-    <row r="223" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A223" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29861,7 +29996,7 @@
       <c r="L223" s="35"/>
       <c r="M223" s="4"/>
     </row>
-    <row r="224" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A224" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29898,7 +30033,7 @@
       <c r="L224" s="35"/>
       <c r="M224" s="4"/>
     </row>
-    <row r="225" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A225" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29931,7 +30066,7 @@
       <c r="L225" s="26"/>
       <c r="M225" s="3"/>
     </row>
-    <row r="226" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A226" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29964,7 +30099,7 @@
       <c r="L226" s="26"/>
       <c r="M226" s="3"/>
     </row>
-    <row r="227" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A227" s="50" t="s">
         <v>1020</v>
       </c>
@@ -29997,7 +30132,7 @@
       <c r="L227" s="35"/>
       <c r="M227" s="4"/>
     </row>
-    <row r="228" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A228" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30032,7 +30167,7 @@
       <c r="L228" s="35"/>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A229" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30065,7 +30200,7 @@
       <c r="L229" s="26"/>
       <c r="M229" s="3"/>
     </row>
-    <row r="230" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A230" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30098,7 +30233,7 @@
       <c r="L230" s="35"/>
       <c r="M230" s="4"/>
     </row>
-    <row r="231" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A231" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30139,7 +30274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A232" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30174,7 +30309,7 @@
       <c r="L232" s="28"/>
       <c r="M232" s="46"/>
     </row>
-    <row r="233" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A233" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30211,7 +30346,7 @@
       <c r="L233" s="26"/>
       <c r="M233" s="3"/>
     </row>
-    <row r="234" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A234" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30244,7 +30379,7 @@
       <c r="L234" s="26"/>
       <c r="M234" s="3"/>
     </row>
-    <row r="235" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A235" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30280,7 +30415,7 @@
       </c>
       <c r="L235" s="30"/>
     </row>
-    <row r="236" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A236" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30313,7 +30448,7 @@
       <c r="L236" s="26"/>
       <c r="M236" s="3"/>
     </row>
-    <row r="237" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A237" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30348,7 +30483,7 @@
       <c r="L237" s="26"/>
       <c r="M237" s="3"/>
     </row>
-    <row r="238" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A238" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30381,7 +30516,7 @@
       <c r="L238" s="26"/>
       <c r="M238" s="3"/>
     </row>
-    <row r="239" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A239" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30414,7 +30549,7 @@
       <c r="L239" s="26"/>
       <c r="M239" s="3"/>
     </row>
-    <row r="240" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A240" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30451,7 +30586,7 @@
       <c r="L240" s="30"/>
       <c r="M240" s="3"/>
     </row>
-    <row r="241" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A241" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30484,7 +30619,7 @@
       <c r="L241" s="31"/>
       <c r="M241" s="3"/>
     </row>
-    <row r="242" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A242" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30517,7 +30652,7 @@
       <c r="L242" s="26"/>
       <c r="M242" s="3"/>
     </row>
-    <row r="243" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A243" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30552,7 +30687,7 @@
       <c r="L243" s="26"/>
       <c r="M243" s="3"/>
     </row>
-    <row r="244" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A244" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30585,7 +30720,7 @@
       <c r="L244" s="35"/>
       <c r="M244" s="4"/>
     </row>
-    <row r="245" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A245" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30618,7 +30753,7 @@
       <c r="L245" s="26"/>
       <c r="M245" s="3"/>
     </row>
-    <row r="246" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A246" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30655,7 +30790,7 @@
       <c r="L246" s="26"/>
       <c r="M246" s="3"/>
     </row>
-    <row r="247" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A247" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30688,7 +30823,7 @@
       <c r="L247" s="26"/>
       <c r="M247" s="3"/>
     </row>
-    <row r="248" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A248" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30721,7 +30856,7 @@
       <c r="L248" s="26"/>
       <c r="M248" s="3"/>
     </row>
-    <row r="249" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A249" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30754,7 +30889,7 @@
       <c r="L249" s="26"/>
       <c r="M249" s="3"/>
     </row>
-    <row r="250" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A250" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30791,7 +30926,7 @@
       <c r="L250" s="35"/>
       <c r="M250" s="4"/>
     </row>
-    <row r="251" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A251" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30824,7 +30959,7 @@
       <c r="L251" s="35"/>
       <c r="M251" s="4"/>
     </row>
-    <row r="252" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A252" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30857,7 +30992,7 @@
       <c r="L252" s="26"/>
       <c r="M252" s="3"/>
     </row>
-    <row r="253" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A253" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30890,7 +31025,7 @@
       <c r="L253" s="26"/>
       <c r="M253" s="3"/>
     </row>
-    <row r="254" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A254" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30923,7 +31058,7 @@
       <c r="L254" s="26"/>
       <c r="M254" s="3"/>
     </row>
-    <row r="255" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A255" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30956,7 +31091,7 @@
       <c r="L255" s="26"/>
       <c r="M255" s="3"/>
     </row>
-    <row r="256" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A256" s="50" t="s">
         <v>1020</v>
       </c>
@@ -30989,7 +31124,7 @@
       <c r="L256" s="26"/>
       <c r="M256" s="3"/>
     </row>
-    <row r="257" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A257" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31024,7 +31159,7 @@
       <c r="L257" s="35"/>
       <c r="M257" s="4"/>
     </row>
-    <row r="258" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A258" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31059,7 +31194,7 @@
       <c r="L258" s="26"/>
       <c r="M258" s="3"/>
     </row>
-    <row r="259" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A259" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31096,7 +31231,7 @@
       <c r="L259" s="26"/>
       <c r="M259" s="3"/>
     </row>
-    <row r="260" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A260" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31129,7 +31264,7 @@
       <c r="L260" s="35"/>
       <c r="M260" s="4"/>
     </row>
-    <row r="261" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A261" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31162,7 +31297,7 @@
       <c r="L261" s="97"/>
       <c r="M261" s="3"/>
     </row>
-    <row r="262" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A262" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31195,7 +31330,7 @@
       <c r="L262" s="26"/>
       <c r="M262" s="3"/>
     </row>
-    <row r="263" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A263" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31228,7 +31363,7 @@
       <c r="L263" s="26"/>
       <c r="M263" s="3"/>
     </row>
-    <row r="264" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A264" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31261,7 +31396,7 @@
       <c r="L264" s="26"/>
       <c r="M264" s="3"/>
     </row>
-    <row r="265" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A265" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31298,7 +31433,7 @@
       <c r="L265" s="33"/>
       <c r="M265" s="12"/>
     </row>
-    <row r="266" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A266" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31333,7 +31468,7 @@
       <c r="L266" s="26"/>
       <c r="M266" s="3"/>
     </row>
-    <row r="267" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A267" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31366,7 +31501,7 @@
       <c r="L267" s="26"/>
       <c r="M267" s="3"/>
     </row>
-    <row r="268" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A268" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31403,7 +31538,7 @@
       <c r="L268" s="97"/>
       <c r="M268" s="82"/>
     </row>
-    <row r="269" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A269" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31438,7 +31573,7 @@
       <c r="L269" s="26"/>
       <c r="M269" s="3"/>
     </row>
-    <row r="270" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A270" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31471,7 +31606,7 @@
       <c r="L270" s="35"/>
       <c r="M270" s="4"/>
     </row>
-    <row r="271" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A271" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31506,7 +31641,7 @@
       <c r="L271" s="26"/>
       <c r="M271" s="3"/>
     </row>
-    <row r="272" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A272" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31539,7 +31674,7 @@
       <c r="L272" s="35"/>
       <c r="M272" s="4"/>
     </row>
-    <row r="273" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A273" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31572,7 +31707,7 @@
       <c r="L273" s="31"/>
       <c r="M273" s="3"/>
     </row>
-    <row r="274" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A274" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31624,7 +31759,7 @@
       <c r="AA274" s="83"/>
       <c r="AB274" s="83"/>
     </row>
-    <row r="275" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A275" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31660,7 +31795,7 @@
       </c>
       <c r="L275" s="30"/>
     </row>
-    <row r="276" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A276" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31695,7 +31830,7 @@
       <c r="L276" s="26"/>
       <c r="M276" s="3"/>
     </row>
-    <row r="277" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A277" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31728,7 +31863,7 @@
       <c r="L277" s="35"/>
       <c r="M277" s="4"/>
     </row>
-    <row r="278" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A278" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31763,7 +31898,7 @@
       <c r="L278" s="26"/>
       <c r="M278" s="3"/>
     </row>
-    <row r="279" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A279" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31796,7 +31931,7 @@
       <c r="L279" s="26"/>
       <c r="M279" s="3"/>
     </row>
-    <row r="280" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A280" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31833,7 +31968,7 @@
       <c r="L280" s="26"/>
       <c r="M280" s="3"/>
     </row>
-    <row r="281" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A281" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31870,7 +32005,7 @@
       <c r="L281" s="26"/>
       <c r="M281" s="3"/>
     </row>
-    <row r="282" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A282" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31903,7 +32038,7 @@
       <c r="L282" s="35"/>
       <c r="M282" s="4"/>
     </row>
-    <row r="283" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A283" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31936,7 +32071,7 @@
       <c r="L283" s="26"/>
       <c r="M283" s="3"/>
     </row>
-    <row r="284" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A284" s="50" t="s">
         <v>1020</v>
       </c>
@@ -31973,7 +32108,7 @@
       <c r="L284" s="26"/>
       <c r="M284" s="3"/>
     </row>
-    <row r="285" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A285" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32010,7 +32145,7 @@
       <c r="L285" s="26"/>
       <c r="M285" s="3"/>
     </row>
-    <row r="286" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A286" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32043,7 +32178,7 @@
       <c r="L286" s="26"/>
       <c r="M286" s="3"/>
     </row>
-    <row r="287" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A287" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32076,7 +32211,7 @@
       <c r="L287" s="26"/>
       <c r="M287" s="3"/>
     </row>
-    <row r="288" spans="1:28" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A288" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32109,7 +32244,7 @@
       <c r="L288" s="26"/>
       <c r="M288" s="3"/>
     </row>
-    <row r="289" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A289" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32142,7 +32277,7 @@
       <c r="L289" s="26"/>
       <c r="M289" s="3"/>
     </row>
-    <row r="290" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A290" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32175,7 +32310,7 @@
       <c r="L290" s="35"/>
       <c r="M290" s="4"/>
     </row>
-    <row r="291" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A291" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32210,7 +32345,7 @@
       <c r="L291" s="35"/>
       <c r="M291" s="4"/>
     </row>
-    <row r="292" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A292" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32247,7 +32382,7 @@
       <c r="L292" s="26"/>
       <c r="M292" s="3"/>
     </row>
-    <row r="293" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A293" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32280,7 +32415,7 @@
       <c r="L293" s="26"/>
       <c r="M293" s="3"/>
     </row>
-    <row r="294" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A294" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32315,7 +32450,7 @@
       <c r="L294" s="26"/>
       <c r="M294" s="3"/>
     </row>
-    <row r="295" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A295" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32350,7 +32485,7 @@
       <c r="L295" s="26"/>
       <c r="M295" s="3"/>
     </row>
-    <row r="296" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A296" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32383,7 +32518,7 @@
       <c r="L296" s="35"/>
       <c r="M296" s="4"/>
     </row>
-    <row r="297" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A297" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32416,7 +32551,7 @@
       <c r="L297" s="35"/>
       <c r="M297" s="4"/>
     </row>
-    <row r="298" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A298" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32449,7 +32584,7 @@
       <c r="L298" s="26"/>
       <c r="M298" s="3"/>
     </row>
-    <row r="299" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A299" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32484,7 +32619,7 @@
       <c r="L299" s="35"/>
       <c r="M299" s="4"/>
     </row>
-    <row r="300" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A300" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32519,7 +32654,7 @@
       <c r="L300" s="26"/>
       <c r="M300" s="3"/>
     </row>
-    <row r="301" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A301" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32552,7 +32687,7 @@
       <c r="L301" s="26"/>
       <c r="M301" s="3"/>
     </row>
-    <row r="302" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A302" s="50" t="s">
         <v>1020</v>
       </c>
@@ -32587,7 +32722,7 @@
       <c r="L302" s="26"/>
       <c r="M302" s="3"/>
     </row>
-    <row r="303" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A303" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32620,7 +32755,7 @@
       <c r="L303" s="33"/>
       <c r="M303" s="12"/>
     </row>
-    <row r="304" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A304" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32655,7 +32790,7 @@
       <c r="L304" s="98"/>
       <c r="M304" s="96"/>
     </row>
-    <row r="305" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A305" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32690,7 +32825,7 @@
       <c r="L305" s="26"/>
       <c r="M305" s="3"/>
     </row>
-    <row r="306" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A306" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32725,7 +32860,7 @@
       <c r="L306" s="26"/>
       <c r="M306" s="3"/>
     </row>
-    <row r="307" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A307" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32758,7 +32893,7 @@
       <c r="L307" s="26"/>
       <c r="M307" s="3"/>
     </row>
-    <row r="308" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A308" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32791,7 +32926,7 @@
       <c r="L308" s="35"/>
       <c r="M308" s="4"/>
     </row>
-    <row r="309" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A309" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32824,7 +32959,7 @@
       <c r="L309" s="35"/>
       <c r="M309" s="4"/>
     </row>
-    <row r="310" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A310" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32857,7 +32992,7 @@
       <c r="L310" s="35"/>
       <c r="M310" s="4"/>
     </row>
-    <row r="311" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A311" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32894,7 +33029,7 @@
       <c r="L311" s="35"/>
       <c r="M311" s="4"/>
     </row>
-    <row r="312" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A312" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32927,7 +33062,7 @@
       <c r="L312" s="26"/>
       <c r="M312" s="3"/>
     </row>
-    <row r="313" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A313" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32960,7 +33095,7 @@
       <c r="L313" s="33"/>
       <c r="M313" s="12"/>
     </row>
-    <row r="314" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A314" s="77" t="s">
         <v>1023</v>
       </c>
@@ -32993,7 +33128,7 @@
       <c r="L314" s="26"/>
       <c r="M314" s="3"/>
     </row>
-    <row r="315" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A315" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33026,7 +33161,7 @@
       <c r="L315" s="35"/>
       <c r="M315" s="4"/>
     </row>
-    <row r="316" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A316" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33059,7 +33194,7 @@
       <c r="L316" s="33"/>
       <c r="M316" s="12"/>
     </row>
-    <row r="317" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A317" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33092,7 +33227,7 @@
       <c r="L317" s="33"/>
       <c r="M317" s="12"/>
     </row>
-    <row r="318" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A318" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33125,7 +33260,7 @@
       <c r="L318" s="35"/>
       <c r="M318" s="4"/>
     </row>
-    <row r="319" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A319" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33158,7 +33293,7 @@
       <c r="L319" s="26"/>
       <c r="M319" s="3"/>
     </row>
-    <row r="320" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A320" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33193,7 +33328,7 @@
       <c r="L320" s="26"/>
       <c r="M320" s="3"/>
     </row>
-    <row r="321" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A321" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33226,7 +33361,7 @@
       <c r="L321" s="26"/>
       <c r="M321" s="3"/>
     </row>
-    <row r="322" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A322" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33261,7 +33396,7 @@
       <c r="L322" s="26"/>
       <c r="M322" s="3"/>
     </row>
-    <row r="323" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A323" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33294,7 +33429,7 @@
       <c r="L323" s="26"/>
       <c r="M323" s="3"/>
     </row>
-    <row r="324" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A324" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33327,7 +33462,7 @@
       <c r="L324" s="26"/>
       <c r="M324" s="3"/>
     </row>
-    <row r="325" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A325" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33362,7 +33497,7 @@
       <c r="L325" s="26"/>
       <c r="M325" s="3"/>
     </row>
-    <row r="326" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A326" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33395,7 +33530,7 @@
       <c r="L326" s="35"/>
       <c r="M326" s="4"/>
     </row>
-    <row r="327" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A327" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33430,7 +33565,7 @@
       <c r="L327" s="35"/>
       <c r="M327" s="4"/>
     </row>
-    <row r="328" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A328" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33463,7 +33598,7 @@
       <c r="L328" s="26"/>
       <c r="M328" s="3"/>
     </row>
-    <row r="329" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A329" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33496,7 +33631,7 @@
       <c r="L329" s="33"/>
       <c r="M329" s="12"/>
     </row>
-    <row r="330" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A330" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33529,7 +33664,7 @@
       <c r="L330" s="33"/>
       <c r="M330" s="12"/>
     </row>
-    <row r="331" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A331" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33564,7 +33699,7 @@
       <c r="L331" s="33"/>
       <c r="M331" s="12"/>
     </row>
-    <row r="332" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A332" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33599,7 +33734,7 @@
       <c r="L332" s="35"/>
       <c r="M332" s="4"/>
     </row>
-    <row r="333" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A333" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33634,7 +33769,7 @@
       <c r="L333" s="33"/>
       <c r="M333" s="12"/>
     </row>
-    <row r="334" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A334" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33667,7 +33802,7 @@
       <c r="L334" s="26"/>
       <c r="M334" s="3"/>
     </row>
-    <row r="335" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A335" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33702,7 +33837,7 @@
       <c r="L335" s="35"/>
       <c r="M335" s="4"/>
     </row>
-    <row r="336" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A336" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33735,7 +33870,7 @@
       <c r="L336" s="33"/>
       <c r="M336" s="12"/>
     </row>
-    <row r="337" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A337" s="77" t="s">
         <v>1023</v>
       </c>
@@ -33768,7 +33903,7 @@
       <c r="L337" s="33"/>
       <c r="M337" s="12"/>
     </row>
-    <row r="338" spans="1:13" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A338" s="102" t="s">
         <v>1023</v>
       </c>
@@ -34329,4 +34464,274 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ED198E-94CC-2243-AFFF-9C03D789ED45}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="106" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B13" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B15" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B17" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B18" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B19" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B20" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B22" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B23" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B24" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B26" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B27" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B30" s="108" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A35BA9F4-873C-DB4B-AC71-DB63A8BDA956}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{8C764FD8-8113-D549-BBB1-7C0A15347C1B}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{A6A56A2C-DDD2-8B40-90C1-C535965921FD}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{C0C0C2EF-1660-5841-B6DE-FAB2A2E63D40}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{4B4D7116-65C5-094F-9F27-84C0CECF4C8B}"/>
+    <hyperlink ref="B30" r:id="rId6" xr:uid="{D01B0885-E530-BF43-BC80-1C870B3575EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Round2ProjectRobotData.xlsx
+++ b/data/Round2ProjectRobotData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Documents\R\Apps\Round_2_App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E813588B-D4BC-4C0F-9476-37EDE9496105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6745EFEC-2A67-4227-B53F-81FC8DCEB050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3445,15 +3445,9 @@
     <t>ClinicalHealth-PatientIntakeandVisitors.jpeg</t>
   </si>
   <si>
-    <t>ContinuityofWorkandEducation-SanitationatWork//School.jpeg</t>
-  </si>
-  <si>
     <t>ContinuityofWorkandEducation-Telepresence.jpeg</t>
   </si>
   <si>
-    <t>ContinuityofWorkandEducation-Warehouse&amp;ProcessAutomation.jpeg</t>
-  </si>
-  <si>
     <t>ContinuityofWorkandEducation-PrivateHealthSurveillance.jpeg</t>
   </si>
   <si>
@@ -3542,6 +3536,12 @@
   </si>
   <si>
     <t>York general uses ultraviolet light robots to sanitize N95 masks.</t>
+  </si>
+  <si>
+    <t>ContinuityofWorkandEducation-SanitationatWork_School.jpeg</t>
+  </si>
+  <si>
+    <t>ContinuityofWorkandEducation-Warehouse_ProcessAutomation.jpeg</t>
   </si>
 </sst>
 </file>
@@ -25846,7 +25846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0"/>
+    <sheetView topLeftCell="H275" workbookViewId="0">
+      <selection activeCell="F208" sqref="F208"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -32871,7 +32873,7 @@
         <v>124</v>
       </c>
       <c r="F206" s="35" t="s">
-        <v>144</v>
+        <v>1031</v>
       </c>
       <c r="G206" s="35" t="s">
         <v>144</v>
@@ -32919,7 +32921,7 @@
         <v>151</v>
       </c>
       <c r="F207" s="35" t="s">
-        <v>144</v>
+        <v>1031</v>
       </c>
       <c r="G207" s="35" t="s">
         <v>144</v>
@@ -38617,14 +38619,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="55.71875" customWidth="1"/>
-    <col min="2" max="4" width="55.71875" style="95" customWidth="1"/>
+    <col min="2" max="3" width="55.71875" style="95" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" style="95" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.71875" customWidth="1"/>
     <col min="6" max="6" width="138.27734375" customWidth="1"/>
     <col min="7" max="30" width="10.71875" customWidth="1"/>
@@ -38641,7 +38644,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1043</v>
@@ -38676,7 +38679,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="92" t="s">
         <v>282</v>
@@ -38784,7 +38787,7 @@
         <v>402</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D8" s="92" t="str">
         <f t="shared" si="0"/>
@@ -38886,17 +38889,17 @@
         <v>577</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C13" s="92" t="s">
         <v>605</v>
       </c>
       <c r="D13" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>data/Images/ContinuityofWorkandEducation-SanitationatWork//School.jpeg</v>
+        <v>data/Images/ContinuityofWorkandEducation-SanitationatWork_School.jpeg</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>1057</v>
+        <v>1088</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>606</v>
@@ -38907,7 +38910,7 @@
         <v>577</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C14" s="92" t="s">
         <v>672</v>
@@ -38917,7 +38920,7 @@
         <v>data/Images/ContinuityofWorkandEducation-Telepresence.jpeg</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>673</v>
@@ -38934,11 +38937,11 @@
         <v>740</v>
       </c>
       <c r="D15" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>data/Images/ContinuityofWorkandEducation-Warehouse&amp;ProcessAutomation.jpeg</v>
+        <f xml:space="preserve"> _xlfn.CONCAT("data/Images/", E15)</f>
+        <v>data/Images/ContinuityofWorkandEducation-Warehouse_ProcessAutomation.jpeg</v>
       </c>
       <c r="E15" s="79" t="s">
-        <v>1059</v>
+        <v>1089</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>741</v>
@@ -38959,7 +38962,7 @@
         <v>data/Images/ContinuityofWorkandEducation-PrivateHealthSurveillance.jpeg</v>
       </c>
       <c r="E16" s="79" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>411</v>
@@ -38980,7 +38983,7 @@
         <v>data/Images/ContinuityofWorkandEducation-ConstructionandAgriculture.jpeg</v>
       </c>
       <c r="E17" s="79" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F17" s="76" t="s">
         <v>761</v>
@@ -39001,7 +39004,7 @@
         <v>data/Images/ContinuityofWorkandEducation-PrivateSecurity.jpeg</v>
       </c>
       <c r="E18" s="79" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F18" s="76" t="s">
         <v>777</v>
@@ -39022,7 +39025,7 @@
         <v>data/Images/QualityofLife-DeliveryFood.jepg</v>
       </c>
       <c r="E19" s="79" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F19" s="76" t="s">
         <v>810</v>
@@ -39033,7 +39036,7 @@
         <v>778</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>830</v>
@@ -39043,7 +39046,7 @@
         <v>data/Images/QualityofLife-DeliveryNon-Food.jpeg</v>
       </c>
       <c r="E20" s="95" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F20" s="76" t="s">
         <v>831</v>
@@ -39064,10 +39067,10 @@
         <v>data/Images/QualityofLife-AttendPublicSocialEvents.jpeg</v>
       </c>
       <c r="E21" s="95" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -39085,7 +39088,7 @@
         <v>data/Images/QualityofLife-InterpersonalSocializing.jepg</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F22" s="76" t="s">
         <v>857</v>
@@ -39099,14 +39102,14 @@
         <v>858</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D23" s="92" t="str">
         <f t="shared" si="0"/>
         <v>data/Images/QualityofLife-OtherPersonalActivities.jepg</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F23" s="76" t="s">
         <v>866</v>
@@ -39117,17 +39120,17 @@
         <v>871</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D24" s="92" t="str">
         <f t="shared" si="0"/>
         <v>data/Images/LabandSupplyChainAutomation-Delivery.jpeg</v>
       </c>
       <c r="E24" s="79" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F24" s="76" t="s">
         <v>919</v>
@@ -39138,20 +39141,20 @@
         <v>871</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D25" s="92" t="str">
         <f t="shared" si="0"/>
         <v>data/Images/LabandSupplyChainAutomation-ManufactureorDeconPPE.jpeg</v>
       </c>
       <c r="E25" s="79" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F25" s="76" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -39159,7 +39162,7 @@
         <v>871</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C26" s="92" t="s">
         <v>971</v>
@@ -39169,7 +39172,7 @@
         <v>data/Images/LabandSupplyChainAutomation-InfectiousMat.Handling.jpeg</v>
       </c>
       <c r="E26" s="79" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F26" s="76" t="s">
         <v>875</v>
@@ -39190,7 +39193,7 @@
         <v>data/Images/LabandSupplyChainAutomation-LaboratoryAutomation.jpeg</v>
       </c>
       <c r="E27" s="79" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F27" s="76" t="s">
         <v>996</v>
@@ -39211,7 +39214,7 @@
         <v>data/Images/Non-HospitalCare-DeliveryToQuarantined.jpeg</v>
       </c>
       <c r="E28" s="79" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F28" s="76" t="s">
         <v>271</v>
@@ -39232,7 +39235,7 @@
         <v>data/Images/Non-HospitalCare-QuarantineSocializing.jpeg</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F29" s="76" t="s">
         <v>1017</v>
@@ -39253,10 +39256,10 @@
         <v>data/Images/Non-HospitalCare-PublicHealthSurveillance.jpeg</v>
       </c>
       <c r="E30" s="79" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F30" s="94" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
